--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_5_19.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_5_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>281200.1346997846</v>
+        <v>277060.4282858275</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2220068.892516698</v>
+        <v>2280223.653892729</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11167387.17428587</v>
+        <v>11164437.27733378</v>
       </c>
     </row>
     <row r="11">
@@ -656,16 +656,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>71.28963065225335</v>
       </c>
       <c r="C2" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>12.725494085322</v>
@@ -674,10 +674,10 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,16 +704,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -722,10 +722,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>126.3038595965432</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -747,10 +747,10 @@
         <v>135.0820259802211</v>
       </c>
       <c r="F3" t="n">
-        <v>56.86896541823972</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H3" t="n">
         <v>87.41444223540508</v>
@@ -789,10 +789,10 @@
         <v>133.5813703291298</v>
       </c>
       <c r="T3" t="n">
-        <v>175.2139736830806</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>207.9625118881446</v>
+        <v>101.3468060953239</v>
       </c>
       <c r="V3" t="n">
         <v>220.3146016126436</v>
@@ -817,10 +817,10 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C4" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>87.95308749070801</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>102.3793722788684</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -896,13 +896,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
         <v>412.725494085322</v>
@@ -911,7 +911,7 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H5" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>136.9537457384598</v>
@@ -944,22 +944,22 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>229.1977116752663</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>153.4996467581146</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -987,13 +987,13 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G6" t="n">
-        <v>69.98930104615282</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,13 +1020,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>175.2139736830806</v>
+        <v>50.6435372072253</v>
       </c>
       <c r="U6" t="n">
         <v>207.9625118881446</v>
@@ -1057,16 +1057,16 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>148.1027728429461</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1105,16 +1105,16 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>209.9147738006217</v>
       </c>
       <c r="W7" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>381.5867174954989</v>
+        <v>289.1043232126787</v>
       </c>
       <c r="E8" t="n">
         <v>398.5576896346209</v>
@@ -1145,10 +1145,10 @@
         <v>412.725494085322</v>
       </c>
       <c r="G8" t="n">
-        <v>53.51057079564861</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H8" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1190,7 +1190,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1288,31 +1288,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>130.1622329381525</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C10" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>105.2526762706521</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1345,7 +1345,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1370,25 +1370,25 @@
         <v>325.4114858595509</v>
       </c>
       <c r="C11" t="n">
-        <v>318.1654340873667</v>
+        <v>7.056414184132882</v>
       </c>
       <c r="D11" t="n">
-        <v>310.5084051007669</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>327.4793772398889</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>341.64718169059</v>
       </c>
       <c r="G11" t="n">
-        <v>337.9528155621449</v>
+        <v>337.9528155621448</v>
       </c>
       <c r="H11" t="n">
-        <v>249.7639075344423</v>
+        <v>249.7639075344422</v>
       </c>
       <c r="I11" t="n">
-        <v>65.87543334372785</v>
+        <v>65.87543334372781</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>93.77010711362793</v>
       </c>
       <c r="T11" t="n">
         <v>150.1872840214455</v>
@@ -1427,13 +1427,13 @@
         <v>182.1168898750154</v>
       </c>
       <c r="V11" t="n">
-        <v>267.6074288087848</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>296.2107322866634</v>
       </c>
       <c r="X11" t="n">
-        <v>156.882933899636</v>
+        <v>314.4797666215417</v>
       </c>
       <c r="Y11" t="n">
         <v>321.4474895938729</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>112.2776261096563</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>97.42475435993866</v>
       </c>
       <c r="D13" t="n">
-        <v>35.81990257081371</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>82.92491162465754</v>
+        <v>82.9249116246575</v>
       </c>
       <c r="F13" t="n">
-        <v>84.67436304442481</v>
+        <v>79.6223240370945</v>
       </c>
       <c r="G13" t="n">
-        <v>95.49320096681694</v>
+        <v>95.4932009668169</v>
       </c>
       <c r="H13" t="n">
-        <v>82.84545313338899</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>60.68516871456092</v>
+        <v>60.68516871456087</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,25 +1573,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>51.58366707901683</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>129.7096105845442</v>
+        <v>129.7096105845441</v>
       </c>
       <c r="T13" t="n">
         <v>162.2835489187162</v>
       </c>
       <c r="U13" t="n">
-        <v>211.5060914457861</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>192.241239332652</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>209.4187856534022</v>
       </c>
       <c r="X13" t="n">
-        <v>160.6612066001148</v>
+        <v>160.6612066001147</v>
       </c>
       <c r="Y13" t="n">
         <v>149.8026281767911</v>
@@ -1604,13 +1604,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>325.4114858595509</v>
+        <v>325.411485859551</v>
       </c>
       <c r="C14" t="n">
         <v>318.1654340873667</v>
       </c>
       <c r="D14" t="n">
-        <v>310.5084051007669</v>
+        <v>310.508405100767</v>
       </c>
       <c r="E14" t="n">
         <v>327.4793772398889</v>
@@ -1622,7 +1622,7 @@
         <v>337.9528155621449</v>
       </c>
       <c r="H14" t="n">
-        <v>249.7639075344423</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,22 +1655,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>93.77010711362797</v>
+        <v>93.77010711362799</v>
       </c>
       <c r="T14" t="n">
-        <v>72.7729145228505</v>
+        <v>150.1872840214455</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>182.1168898750154</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>267.6074288087848</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>314.4797666215418</v>
+        <v>37.10498597358865</v>
       </c>
       <c r="Y14" t="n">
         <v>321.4474895938729</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>112.2776261096563</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>97.4247543599387</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>82.92491162465754</v>
+        <v>82.92491162465755</v>
       </c>
       <c r="F16" t="n">
-        <v>84.67436304442481</v>
+        <v>84.67436304442482</v>
       </c>
       <c r="G16" t="n">
-        <v>95.49320096681694</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>82.84545313338899</v>
+        <v>82.845453133389</v>
       </c>
       <c r="I16" t="n">
-        <v>60.68516871456092</v>
+        <v>60.68516871456093</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>51.58366707901683</v>
+        <v>43.31699991704009</v>
       </c>
       <c r="S16" t="n">
         <v>129.7096105845442</v>
@@ -1822,13 +1822,13 @@
         <v>211.5060914457861</v>
       </c>
       <c r="V16" t="n">
-        <v>192.241239332652</v>
+        <v>192.2412393326521</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>209.4187856534022</v>
       </c>
       <c r="X16" t="n">
-        <v>56.61774365512846</v>
+        <v>160.6612066001148</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1844,7 +1844,7 @@
         <v>266.1298289386986</v>
       </c>
       <c r="C17" t="n">
-        <v>258.8837771665144</v>
+        <v>258.8837771665143</v>
       </c>
       <c r="D17" t="n">
         <v>251.2267481799146</v>
@@ -1859,7 +1859,7 @@
         <v>278.6711586412925</v>
       </c>
       <c r="H17" t="n">
-        <v>190.4822506135897</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I17" t="n">
         <v>6.593776422875493</v>
@@ -2099,7 +2099,7 @@
         <v>190.4822506135899</v>
       </c>
       <c r="I20" t="n">
-        <v>6.593776422875493</v>
+        <v>6.593776422874129</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>290.1533409542121</v>
+        <v>283.709878481573</v>
       </c>
       <c r="C32" t="n">
-        <v>282.9072891820279</v>
+        <v>276.4638267093887</v>
       </c>
       <c r="D32" t="n">
-        <v>275.2502601954282</v>
+        <v>268.806797722789</v>
       </c>
       <c r="E32" t="n">
-        <v>292.2212323345501</v>
+        <v>285.7777698619109</v>
       </c>
       <c r="F32" t="n">
-        <v>306.3890367852512</v>
+        <v>299.9455743126121</v>
       </c>
       <c r="G32" t="n">
-        <v>302.6946706568061</v>
+        <v>296.2512081841669</v>
       </c>
       <c r="H32" t="n">
-        <v>214.5057626291035</v>
+        <v>208.0623001564643</v>
       </c>
       <c r="I32" t="n">
-        <v>30.61728843838904</v>
+        <v>24.17382596574988</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>58.51196220828916</v>
+        <v>52.06849973565001</v>
       </c>
       <c r="T32" t="n">
-        <v>114.9291391161067</v>
+        <v>108.4856766434676</v>
       </c>
       <c r="U32" t="n">
-        <v>146.8587449696766</v>
+        <v>140.4152824970374</v>
       </c>
       <c r="V32" t="n">
-        <v>232.349283903446</v>
+        <v>225.9058214308068</v>
       </c>
       <c r="W32" t="n">
-        <v>260.9525873813246</v>
+        <v>254.5091249086855</v>
       </c>
       <c r="X32" t="n">
-        <v>279.2216217162029</v>
+        <v>272.7781592435638</v>
       </c>
       <c r="Y32" t="n">
-        <v>286.1893446885341</v>
+        <v>279.7458822158949</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>77.01948120431749</v>
+        <v>70.57601873167833</v>
       </c>
       <c r="C34" t="n">
-        <v>62.16660945459989</v>
+        <v>55.72314698196074</v>
       </c>
       <c r="D34" t="n">
-        <v>47.74032466643962</v>
+        <v>41.29686219380046</v>
       </c>
       <c r="E34" t="n">
-        <v>47.66676671931873</v>
+        <v>41.22330424667958</v>
       </c>
       <c r="F34" t="n">
-        <v>49.416218139086</v>
+        <v>42.97275566644684</v>
       </c>
       <c r="G34" t="n">
-        <v>60.23505606147813</v>
+        <v>53.79159358883898</v>
       </c>
       <c r="H34" t="n">
-        <v>47.58730822805018</v>
+        <v>41.14384575541102</v>
       </c>
       <c r="I34" t="n">
-        <v>25.42702380922211</v>
+        <v>18.98356133658295</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>16.32552217367802</v>
+        <v>9.88205970103887</v>
       </c>
       <c r="S34" t="n">
-        <v>94.45146567920534</v>
+        <v>88.00800320656619</v>
       </c>
       <c r="T34" t="n">
-        <v>127.0254040133774</v>
+        <v>120.5819415407383</v>
       </c>
       <c r="U34" t="n">
-        <v>176.2479465404473</v>
+        <v>169.8044840678081</v>
       </c>
       <c r="V34" t="n">
-        <v>156.9830944273132</v>
+        <v>150.5396319546741</v>
       </c>
       <c r="W34" t="n">
-        <v>174.1606407480634</v>
+        <v>167.7171782754242</v>
       </c>
       <c r="X34" t="n">
-        <v>125.4030616947759</v>
+        <v>118.9595992221368</v>
       </c>
       <c r="Y34" t="n">
-        <v>114.5444832714523</v>
+        <v>108.1010207988131</v>
       </c>
     </row>
     <row r="35">
@@ -3500,13 +3500,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C38" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D38" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E38" t="n">
         <v>268.1977203190365</v>
@@ -3518,10 +3518,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H38" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I38" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T38" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U38" t="n">
         <v>122.835232954163</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C40" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D40" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E40" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F40" t="n">
-        <v>25.39270612357237</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G40" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H40" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I40" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T40" t="n">
         <v>103.0018919978638</v>
@@ -3721,13 +3721,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W40" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X40" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y40" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="41">
@@ -3752,13 +3752,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G41" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H41" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I41" t="n">
-        <v>6.593776422875465</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,10 +3788,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>34.48845019277559</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T41" t="n">
-        <v>90.90562710059314</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U41" t="n">
         <v>122.835232954163</v>
@@ -3800,10 +3800,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W41" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X41" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y41" t="n">
         <v>262.1658326730205</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>52.99596918880391</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C43" t="n">
-        <v>38.14309743908632</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D43" t="n">
-        <v>23.71681265092604</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E43" t="n">
-        <v>23.64325470380516</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F43" t="n">
-        <v>25.39270612357242</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G43" t="n">
-        <v>36.21154404596456</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H43" t="n">
-        <v>23.5637962125366</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I43" t="n">
-        <v>1.403511793708532</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>70.42795366369177</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T43" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U43" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V43" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W43" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X43" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y43" t="n">
-        <v>90.52097125593872</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="44">
@@ -3974,28 +3974,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386984</v>
       </c>
       <c r="C44" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D44" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E44" t="n">
-        <v>268.1977203190365</v>
+        <v>268.1977203190364</v>
       </c>
       <c r="F44" t="n">
         <v>282.3655247697376</v>
       </c>
       <c r="G44" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H44" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I44" t="n">
-        <v>6.593776422875465</v>
+        <v>6.593776422875379</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>34.48845019277559</v>
+        <v>34.4884501927755</v>
       </c>
       <c r="T44" t="n">
-        <v>90.90562710059314</v>
+        <v>90.90562710059305</v>
       </c>
       <c r="U44" t="n">
-        <v>122.835232954163</v>
+        <v>122.8352329541629</v>
       </c>
       <c r="V44" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879323</v>
       </c>
       <c r="W44" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X44" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y44" t="n">
-        <v>262.1658326730205</v>
+        <v>262.1658326730204</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>52.99596918880391</v>
+        <v>52.99596918880383</v>
       </c>
       <c r="C46" t="n">
-        <v>38.14309743908632</v>
+        <v>38.14309743908623</v>
       </c>
       <c r="D46" t="n">
-        <v>23.71681265092604</v>
+        <v>23.71681265092596</v>
       </c>
       <c r="E46" t="n">
-        <v>23.64325470380516</v>
+        <v>23.64325470380507</v>
       </c>
       <c r="F46" t="n">
-        <v>25.39270612357242</v>
+        <v>25.39270612357234</v>
       </c>
       <c r="G46" t="n">
-        <v>36.21154404596456</v>
+        <v>36.21154404596447</v>
       </c>
       <c r="H46" t="n">
-        <v>23.5637962125366</v>
+        <v>23.56379621253652</v>
       </c>
       <c r="I46" t="n">
-        <v>1.403511793708532</v>
+        <v>1.403511793708446</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>70.42795366369177</v>
+        <v>70.42795366369168</v>
       </c>
       <c r="T46" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U46" t="n">
-        <v>152.2244345249337</v>
+        <v>152.2244345249336</v>
       </c>
       <c r="V46" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W46" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X46" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y46" t="n">
-        <v>90.52097125593872</v>
+        <v>90.52097125593863</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1650.712604500227</v>
+        <v>929.940204038998</v>
       </c>
       <c r="C2" t="n">
-        <v>1257.537103003158</v>
+        <v>929.940204038998</v>
       </c>
       <c r="D2" t="n">
-        <v>872.0959742198256</v>
+        <v>929.940204038998</v>
       </c>
       <c r="E2" t="n">
-        <v>469.5124493363701</v>
+        <v>929.940204038998</v>
       </c>
       <c r="F2" t="n">
-        <v>456.6584149067519</v>
+        <v>917.0861696093798</v>
       </c>
       <c r="G2" t="n">
-        <v>43.49565939475502</v>
+        <v>503.923414097383</v>
       </c>
       <c r="H2" t="n">
-        <v>43.49565939475502</v>
+        <v>179.8403636638736</v>
       </c>
       <c r="I2" t="n">
-        <v>43.49565939475502</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="J2" t="n">
-        <v>43.49565939475502</v>
+        <v>186.1530196651666</v>
       </c>
       <c r="K2" t="n">
-        <v>43.49565939475502</v>
+        <v>186.1530196651666</v>
       </c>
       <c r="L2" t="n">
-        <v>483.8277400569184</v>
+        <v>679.4733113836954</v>
       </c>
       <c r="M2" t="n">
-        <v>1022.086525067012</v>
+        <v>1121.520058314906</v>
       </c>
       <c r="N2" t="n">
-        <v>1549.897808704474</v>
+        <v>1635.122736924594</v>
       </c>
       <c r="O2" t="n">
-        <v>1989.937409596802</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="P2" t="n">
-        <v>1989.937409596802</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="Q2" t="n">
-        <v>2174.782969737751</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="R2" t="n">
-        <v>2174.782969737751</v>
+        <v>2037.169424102444</v>
       </c>
       <c r="S2" t="n">
-        <v>2174.782969737751</v>
+        <v>1870.655869043495</v>
       </c>
       <c r="T2" t="n">
-        <v>2174.782969737751</v>
+        <v>1647.155266602912</v>
       </c>
       <c r="U2" t="n">
-        <v>2174.782969737751</v>
+        <v>1391.40253703751</v>
       </c>
       <c r="V2" t="n">
-        <v>2174.782969737751</v>
+        <v>1391.40253703751</v>
       </c>
       <c r="W2" t="n">
-        <v>2174.782969737751</v>
+        <v>1391.40253703751</v>
       </c>
       <c r="X2" t="n">
-        <v>2047.203313579626</v>
+        <v>1001.949931970567</v>
       </c>
       <c r="Y2" t="n">
-        <v>1650.712604500227</v>
+        <v>1001.949931970567</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>655.8134179021456</v>
+        <v>840.8692298963695</v>
       </c>
       <c r="C3" t="n">
-        <v>505.1591874622378</v>
+        <v>690.2149994564617</v>
       </c>
       <c r="D3" t="n">
-        <v>375.0702200837181</v>
+        <v>560.126032077942</v>
       </c>
       <c r="E3" t="n">
-        <v>238.6237291946059</v>
+        <v>423.6795411888297</v>
       </c>
       <c r="F3" t="n">
-        <v>181.1803297822425</v>
+        <v>299.2477350719615</v>
       </c>
       <c r="G3" t="n">
-        <v>181.1803297822425</v>
+        <v>179.1879171438259</v>
       </c>
       <c r="H3" t="n">
-        <v>92.88291338284343</v>
+        <v>90.89050074442686</v>
       </c>
       <c r="I3" t="n">
-        <v>43.49565939475502</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="J3" t="n">
-        <v>43.49565939475502</v>
+        <v>154.6182289760658</v>
       </c>
       <c r="K3" t="n">
-        <v>43.49565939475502</v>
+        <v>474.3573750382923</v>
       </c>
       <c r="L3" t="n">
-        <v>527.0617452930683</v>
+        <v>474.3573750382923</v>
       </c>
       <c r="M3" t="n">
-        <v>1065.320530303161</v>
+        <v>474.3573750382923</v>
       </c>
       <c r="N3" t="n">
-        <v>1603.579315313254</v>
+        <v>921.5731989359462</v>
       </c>
       <c r="O3" t="n">
-        <v>1940.41787818286</v>
+        <v>1435.175877545634</v>
       </c>
       <c r="P3" t="n">
-        <v>1940.41787818286</v>
+        <v>1840.797246262032</v>
       </c>
       <c r="Q3" t="n">
-        <v>2174.782969737751</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="R3" t="n">
-        <v>2150.865926635815</v>
+        <v>2051.245294714987</v>
       </c>
       <c r="S3" t="n">
-        <v>2015.935249535684</v>
+        <v>1916.314617614856</v>
       </c>
       <c r="T3" t="n">
-        <v>1838.951437734592</v>
+        <v>1916.314617614856</v>
       </c>
       <c r="U3" t="n">
-        <v>1628.888294413234</v>
+        <v>1813.944106407458</v>
       </c>
       <c r="V3" t="n">
-        <v>1406.348292784301</v>
+        <v>1591.404104778525</v>
       </c>
       <c r="W3" t="n">
-        <v>1176.231046917588</v>
+        <v>1361.286858911812</v>
       </c>
       <c r="X3" t="n">
-        <v>986.9239692675997</v>
+        <v>1171.979781261824</v>
       </c>
       <c r="Y3" t="n">
-        <v>807.6097523431069</v>
+        <v>992.6655643373308</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>302.5422798446325</v>
+        <v>197.1363598538237</v>
       </c>
       <c r="C4" t="n">
-        <v>132.3371619106217</v>
+        <v>197.1363598538237</v>
       </c>
       <c r="D4" t="n">
-        <v>43.49565939475502</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="E4" t="n">
-        <v>43.49565939475502</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="F4" t="n">
-        <v>43.49565939475502</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="G4" t="n">
-        <v>43.49565939475502</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="H4" t="n">
-        <v>43.49565939475502</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="I4" t="n">
-        <v>43.49565939475502</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="J4" t="n">
-        <v>43.49565939475502</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="K4" t="n">
-        <v>125.3307005046969</v>
+        <v>123.3382878662803</v>
       </c>
       <c r="L4" t="n">
-        <v>289.4583403784967</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M4" t="n">
-        <v>475.7499187167607</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N4" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O4" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P4" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="S4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="T4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="U4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="V4" t="n">
-        <v>944.9426819363074</v>
+        <v>839.5367619454986</v>
       </c>
       <c r="W4" t="n">
-        <v>944.9426819363074</v>
+        <v>839.5367619454986</v>
       </c>
       <c r="X4" t="n">
-        <v>710.8623597192905</v>
+        <v>605.4564397284817</v>
       </c>
       <c r="Y4" t="n">
-        <v>487.7502985359338</v>
+        <v>382.344378545125</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1335.973020717819</v>
+        <v>1805.656584026418</v>
       </c>
       <c r="C5" t="n">
-        <v>1335.973020717819</v>
+        <v>1412.481082529348</v>
       </c>
       <c r="D5" t="n">
-        <v>1335.973020717819</v>
+        <v>1412.481082529348</v>
       </c>
       <c r="E5" t="n">
-        <v>1335.973020717819</v>
+        <v>1009.897557645893</v>
       </c>
       <c r="F5" t="n">
-        <v>919.0785822477965</v>
+        <v>593.0031191758706</v>
       </c>
       <c r="G5" t="n">
-        <v>505.9158267357996</v>
+        <v>179.8403636638736</v>
       </c>
       <c r="H5" t="n">
-        <v>181.8327763022902</v>
+        <v>179.8403636638736</v>
       </c>
       <c r="I5" t="n">
-        <v>43.49565939475502</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="J5" t="n">
-        <v>43.49565939475502</v>
+        <v>186.1530196651666</v>
       </c>
       <c r="K5" t="n">
-        <v>402.4780154222169</v>
+        <v>186.1530196651666</v>
       </c>
       <c r="L5" t="n">
-        <v>895.7983071407457</v>
+        <v>186.1530196651666</v>
       </c>
       <c r="M5" t="n">
-        <v>1434.057092150839</v>
+        <v>588.4870060424354</v>
       </c>
       <c r="N5" t="n">
-        <v>1961.868375788301</v>
+        <v>1102.089684652124</v>
       </c>
       <c r="O5" t="n">
-        <v>2174.782969737751</v>
+        <v>1542.129285544452</v>
       </c>
       <c r="P5" t="n">
-        <v>2174.782969737751</v>
+        <v>1890.316777675974</v>
       </c>
       <c r="Q5" t="n">
-        <v>2174.782969737751</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="R5" t="n">
-        <v>2136.790056023272</v>
+        <v>2037.169424102444</v>
       </c>
       <c r="S5" t="n">
-        <v>1970.276500964323</v>
+        <v>2037.169424102444</v>
       </c>
       <c r="T5" t="n">
-        <v>1746.77589852374</v>
+        <v>2037.169424102444</v>
       </c>
       <c r="U5" t="n">
-        <v>1491.023168958338</v>
+        <v>2037.169424102444</v>
       </c>
       <c r="V5" t="n">
-        <v>1491.023168958338</v>
+        <v>1805.656584026418</v>
       </c>
       <c r="W5" t="n">
-        <v>1491.023168958338</v>
+        <v>1805.656584026418</v>
       </c>
       <c r="X5" t="n">
-        <v>1335.973020717819</v>
+        <v>1805.656584026418</v>
       </c>
       <c r="Y5" t="n">
-        <v>1335.973020717819</v>
+        <v>1805.656584026418</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>655.8134179021456</v>
+        <v>840.8692298963695</v>
       </c>
       <c r="C6" t="n">
-        <v>505.1591874622378</v>
+        <v>690.2149994564617</v>
       </c>
       <c r="D6" t="n">
-        <v>375.0702200837181</v>
+        <v>560.126032077942</v>
       </c>
       <c r="E6" t="n">
-        <v>238.6237291946059</v>
+        <v>423.6795411888297</v>
       </c>
       <c r="F6" t="n">
-        <v>114.1919230777377</v>
+        <v>299.2477350719615</v>
       </c>
       <c r="G6" t="n">
-        <v>43.49565939475502</v>
+        <v>179.1879171438259</v>
       </c>
       <c r="H6" t="n">
-        <v>43.49565939475502</v>
+        <v>90.89050074442686</v>
       </c>
       <c r="I6" t="n">
-        <v>43.49565939475502</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="J6" t="n">
-        <v>43.49565939475502</v>
+        <v>154.6182289760658</v>
       </c>
       <c r="K6" t="n">
-        <v>363.2348054569815</v>
+        <v>474.3573750382923</v>
       </c>
       <c r="L6" t="n">
-        <v>846.8008913552947</v>
+        <v>474.3573750382923</v>
       </c>
       <c r="M6" t="n">
-        <v>1018.276226875481</v>
+        <v>921.5731989359462</v>
       </c>
       <c r="N6" t="n">
-        <v>1018.276226875481</v>
+        <v>921.5731989359462</v>
       </c>
       <c r="O6" t="n">
-        <v>1534.796509466463</v>
+        <v>1435.175877545634</v>
       </c>
       <c r="P6" t="n">
-        <v>1940.41787818286</v>
+        <v>1840.797246262032</v>
       </c>
       <c r="Q6" t="n">
-        <v>2174.782969737751</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="R6" t="n">
-        <v>2150.865926635815</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="S6" t="n">
-        <v>2015.935249535684</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="T6" t="n">
-        <v>1838.951437734592</v>
+        <v>2024.007249728816</v>
       </c>
       <c r="U6" t="n">
-        <v>1628.888294413234</v>
+        <v>1813.944106407458</v>
       </c>
       <c r="V6" t="n">
-        <v>1406.348292784301</v>
+        <v>1591.404104778525</v>
       </c>
       <c r="W6" t="n">
-        <v>1176.231046917588</v>
+        <v>1361.286858911812</v>
       </c>
       <c r="X6" t="n">
-        <v>986.9239692675997</v>
+        <v>1171.979781261824</v>
       </c>
       <c r="Y6" t="n">
-        <v>807.6097523431069</v>
+        <v>992.6655643373308</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>661.6122798674851</v>
+        <v>209.7573006568929</v>
       </c>
       <c r="C7" t="n">
-        <v>661.6122798674851</v>
+        <v>209.7573006568929</v>
       </c>
       <c r="D7" t="n">
-        <v>505.9791667699998</v>
+        <v>209.7573006568929</v>
       </c>
       <c r="E7" t="n">
-        <v>350.4203546292023</v>
+        <v>209.7573006568929</v>
       </c>
       <c r="F7" t="n">
-        <v>193.0944198421753</v>
+        <v>209.7573006568929</v>
       </c>
       <c r="G7" t="n">
-        <v>43.49565939475502</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="H7" t="n">
-        <v>43.49565939475502</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="I7" t="n">
-        <v>43.49565939475502</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="J7" t="n">
-        <v>43.49565939475502</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="K7" t="n">
-        <v>125.3307005046969</v>
+        <v>123.3382878662803</v>
       </c>
       <c r="L7" t="n">
-        <v>289.4583403784967</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M7" t="n">
-        <v>475.7499187167607</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N7" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O7" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P7" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="S7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="T7" t="n">
-        <v>944.9426819363074</v>
+        <v>707.231217466125</v>
       </c>
       <c r="U7" t="n">
-        <v>944.9426819363074</v>
+        <v>421.792425708026</v>
       </c>
       <c r="V7" t="n">
-        <v>944.9426819363074</v>
+        <v>209.7573006568929</v>
       </c>
       <c r="W7" t="n">
-        <v>661.6122798674851</v>
+        <v>209.7573006568929</v>
       </c>
       <c r="X7" t="n">
-        <v>661.6122798674851</v>
+        <v>209.7573006568929</v>
       </c>
       <c r="Y7" t="n">
-        <v>661.6122798674851</v>
+        <v>209.7573006568929</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2023.541695780699</v>
+        <v>1965.153759365783</v>
       </c>
       <c r="C8" t="n">
-        <v>1630.366194283629</v>
+        <v>1571.978257868714</v>
       </c>
       <c r="D8" t="n">
-        <v>1244.925065500297</v>
+        <v>1279.953688967018</v>
       </c>
       <c r="E8" t="n">
-        <v>842.3415406168415</v>
+        <v>877.3701640835627</v>
       </c>
       <c r="F8" t="n">
-        <v>425.4471021468192</v>
+        <v>460.4757256135405</v>
       </c>
       <c r="G8" t="n">
-        <v>371.396020535053</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H8" t="n">
         <v>47.31297010154361</v>
@@ -4838,16 +4838,16 @@
         <v>2365.64850507718</v>
       </c>
       <c r="V8" t="n">
-        <v>2023.541695780699</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="W8" t="n">
-        <v>2023.541695780699</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="X8" t="n">
-        <v>2023.541695780699</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Y8" t="n">
-        <v>2023.541695780699</v>
+        <v>2365.64850507718</v>
       </c>
     </row>
     <row r="9">
@@ -4881,16 +4881,16 @@
         <v>47.31297010154367</v>
       </c>
       <c r="J9" t="n">
-        <v>47.31297010154361</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="K9" t="n">
-        <v>47.31297010154361</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="L9" t="n">
-        <v>47.31297010154361</v>
+        <v>643.9940382195844</v>
       </c>
       <c r="M9" t="n">
-        <v>623.6437572083089</v>
+        <v>643.9940382195844</v>
       </c>
       <c r="N9" t="n">
         <v>1209.141762214911</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>817.2829896752653</v>
+        <v>354.2121928262727</v>
       </c>
       <c r="C10" t="n">
-        <v>647.0778717412545</v>
+        <v>184.0070748922619</v>
       </c>
       <c r="D10" t="n">
-        <v>491.4447586437693</v>
+        <v>184.0070748922619</v>
       </c>
       <c r="E10" t="n">
-        <v>335.8859465029718</v>
+        <v>184.0070748922619</v>
       </c>
       <c r="F10" t="n">
-        <v>335.8859465029718</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="G10" t="n">
-        <v>335.8859465029718</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="H10" t="n">
-        <v>180.4073954644657</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="I10" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="J10" t="n">
         <v>47.31297010154361</v>
@@ -4984,28 +4984,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R10" t="n">
-        <v>948.7599926430961</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="S10" t="n">
-        <v>948.7599926430961</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="T10" t="n">
-        <v>948.7599926430961</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="U10" t="n">
-        <v>948.7599926430961</v>
+        <v>539.420211517574</v>
       </c>
       <c r="V10" t="n">
-        <v>948.7599926430961</v>
+        <v>539.420211517574</v>
       </c>
       <c r="W10" t="n">
-        <v>948.7599926430961</v>
+        <v>539.420211517574</v>
       </c>
       <c r="X10" t="n">
-        <v>948.7599926430961</v>
+        <v>539.420211517574</v>
       </c>
       <c r="Y10" t="n">
-        <v>948.7599926430961</v>
+        <v>539.420211517574</v>
       </c>
     </row>
     <row r="11">
@@ -5015,34 +5015,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1688.124554843851</v>
+        <v>1405.326329274748</v>
       </c>
       <c r="C11" t="n">
-        <v>1366.745328492975</v>
+        <v>1398.198638179665</v>
       </c>
       <c r="D11" t="n">
-        <v>1053.100474855837</v>
+        <v>1398.198638179665</v>
       </c>
       <c r="E11" t="n">
-        <v>722.3132251185754</v>
+        <v>1067.411388442403</v>
       </c>
       <c r="F11" t="n">
-        <v>722.3132251185754</v>
+        <v>722.313225118575</v>
       </c>
       <c r="G11" t="n">
-        <v>380.9467447527724</v>
+        <v>380.9467447527721</v>
       </c>
       <c r="H11" t="n">
-        <v>128.659969465457</v>
+        <v>128.6599694654568</v>
       </c>
       <c r="I11" t="n">
-        <v>62.11912770411573</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J11" t="n">
-        <v>206.7689006129438</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K11" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L11" t="n">
         <v>1059.071548358934</v>
@@ -5066,25 +5066,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S11" t="n">
-        <v>3105.956385205776</v>
+        <v>3011.239105293021</v>
       </c>
       <c r="T11" t="n">
-        <v>2954.252057911387</v>
+        <v>2859.534777998631</v>
       </c>
       <c r="U11" t="n">
-        <v>2770.295603492179</v>
+        <v>2675.578323579424</v>
       </c>
       <c r="V11" t="n">
-        <v>2499.985069341892</v>
+        <v>2675.578323579424</v>
       </c>
       <c r="W11" t="n">
-        <v>2499.985069341892</v>
+        <v>2376.375563693905</v>
       </c>
       <c r="X11" t="n">
-        <v>2341.517459342259</v>
+        <v>2058.719233773156</v>
       </c>
       <c r="Y11" t="n">
-        <v>2016.823025409054</v>
+        <v>1734.024799839951</v>
       </c>
     </row>
     <row r="12">
@@ -5121,22 +5121,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K12" t="n">
-        <v>62.11912770411553</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L12" t="n">
-        <v>545.6852136024288</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M12" t="n">
-        <v>1173.45686322911</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="N12" t="n">
-        <v>1223.947919817482</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O12" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P12" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q12" t="n">
         <v>2380.454662679751</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>509.0312489714518</v>
+        <v>482.4730263940836</v>
       </c>
       <c r="C13" t="n">
-        <v>509.0312489714518</v>
+        <v>384.0641836062667</v>
       </c>
       <c r="D13" t="n">
-        <v>472.8495292029531</v>
+        <v>384.0641836062667</v>
       </c>
       <c r="E13" t="n">
-        <v>389.0869922083495</v>
+        <v>300.3016466116632</v>
       </c>
       <c r="F13" t="n">
-        <v>303.5573325675164</v>
+        <v>219.8750566752042</v>
       </c>
       <c r="G13" t="n">
-        <v>207.0995538131559</v>
+        <v>123.4172779208437</v>
       </c>
       <c r="H13" t="n">
         <v>123.4172779208437</v>
@@ -5200,49 +5200,49 @@
         <v>102.7129143774627</v>
       </c>
       <c r="K13" t="n">
-        <v>254.9154847581892</v>
+        <v>254.9154847581893</v>
       </c>
       <c r="L13" t="n">
-        <v>489.4106539027737</v>
+        <v>489.4106539027738</v>
       </c>
       <c r="M13" t="n">
-        <v>746.0697615118223</v>
+        <v>746.0697615118227</v>
       </c>
       <c r="N13" t="n">
-        <v>999.6269248138162</v>
+        <v>999.6269248138166</v>
       </c>
       <c r="O13" t="n">
         <v>1232.699221126309</v>
       </c>
       <c r="P13" t="n">
-        <v>1422.942916173672</v>
+        <v>1422.942916173673</v>
       </c>
       <c r="Q13" t="n">
         <v>1496.732641814508</v>
       </c>
       <c r="R13" t="n">
-        <v>1444.627927593278</v>
+        <v>1496.732641814508</v>
       </c>
       <c r="S13" t="n">
-        <v>1313.608118922022</v>
+        <v>1365.712833143252</v>
       </c>
       <c r="T13" t="n">
-        <v>1149.68534223645</v>
+        <v>1201.79005645768</v>
       </c>
       <c r="U13" t="n">
-        <v>936.042825624545</v>
+        <v>1201.79005645768</v>
       </c>
       <c r="V13" t="n">
-        <v>936.042825624545</v>
+        <v>1007.606986424698</v>
       </c>
       <c r="W13" t="n">
-        <v>936.042825624545</v>
+        <v>796.0728595020694</v>
       </c>
       <c r="X13" t="n">
-        <v>773.758778553722</v>
+        <v>633.7888124312464</v>
       </c>
       <c r="Y13" t="n">
-        <v>622.4429925165592</v>
+        <v>482.4730263940836</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1966.681876406338</v>
+        <v>1714.395101119022</v>
       </c>
       <c r="C14" t="n">
-        <v>1645.302650055462</v>
+        <v>1393.015874768147</v>
       </c>
       <c r="D14" t="n">
-        <v>1331.657796418324</v>
+        <v>1079.371021131008</v>
       </c>
       <c r="E14" t="n">
-        <v>1000.870546681062</v>
+        <v>748.5837713937467</v>
       </c>
       <c r="F14" t="n">
-        <v>655.7723833572338</v>
+        <v>403.4856080699185</v>
       </c>
       <c r="G14" t="n">
-        <v>314.4059029914309</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H14" t="n">
         <v>62.11912770411553</v>
@@ -5303,25 +5303,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S14" t="n">
-        <v>3011.23910529302</v>
+        <v>3011.239105293021</v>
       </c>
       <c r="T14" t="n">
-        <v>2937.731110825494</v>
+        <v>2859.534777998631</v>
       </c>
       <c r="U14" t="n">
-        <v>2937.731110825494</v>
+        <v>2675.578323579424</v>
       </c>
       <c r="V14" t="n">
-        <v>2937.731110825494</v>
+        <v>2405.267789429136</v>
       </c>
       <c r="W14" t="n">
-        <v>2937.731110825494</v>
+        <v>2405.267789429136</v>
       </c>
       <c r="X14" t="n">
-        <v>2620.074780904745</v>
+        <v>2367.78800561743</v>
       </c>
       <c r="Y14" t="n">
-        <v>2295.38034697154</v>
+        <v>2043.093571684225</v>
       </c>
     </row>
     <row r="15">
@@ -5410,43 +5410,43 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>571.25837199077</v>
+        <v>376.3917504485925</v>
       </c>
       <c r="C16" t="n">
-        <v>472.8495292029531</v>
+        <v>376.3917504485925</v>
       </c>
       <c r="D16" t="n">
-        <v>472.8495292029531</v>
+        <v>376.3917504485925</v>
       </c>
       <c r="E16" t="n">
-        <v>389.0869922083495</v>
+        <v>292.6292134539891</v>
       </c>
       <c r="F16" t="n">
-        <v>303.5573325675164</v>
+        <v>207.0995538131559</v>
       </c>
       <c r="G16" t="n">
-        <v>207.0995538131558</v>
+        <v>207.0995538131559</v>
       </c>
       <c r="H16" t="n">
-        <v>123.4172779208437</v>
+        <v>123.4172779208438</v>
       </c>
       <c r="I16" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J16" t="n">
-        <v>102.7129143774627</v>
+        <v>102.7129143774625</v>
       </c>
       <c r="K16" t="n">
-        <v>254.9154847581892</v>
+        <v>254.915484758189</v>
       </c>
       <c r="L16" t="n">
-        <v>489.4106539027737</v>
+        <v>489.4106539027734</v>
       </c>
       <c r="M16" t="n">
-        <v>746.0697615118223</v>
+        <v>746.0697615118221</v>
       </c>
       <c r="N16" t="n">
-        <v>999.6269248138162</v>
+        <v>999.626924813816</v>
       </c>
       <c r="O16" t="n">
         <v>1232.699221126309</v>
@@ -5455,31 +5455,31 @@
         <v>1422.942916173672</v>
       </c>
       <c r="Q16" t="n">
-        <v>1496.732641814508</v>
+        <v>1496.732641814507</v>
       </c>
       <c r="R16" t="n">
-        <v>1444.627927593279</v>
+        <v>1452.97809644376</v>
       </c>
       <c r="S16" t="n">
-        <v>1313.608118922022</v>
+        <v>1321.958287772503</v>
       </c>
       <c r="T16" t="n">
-        <v>1149.68534223645</v>
+        <v>1158.035511086931</v>
       </c>
       <c r="U16" t="n">
-        <v>936.0428256245449</v>
+        <v>944.3929944750259</v>
       </c>
       <c r="V16" t="n">
-        <v>741.8597555915628</v>
+        <v>750.209924442044</v>
       </c>
       <c r="W16" t="n">
-        <v>741.8597555915628</v>
+        <v>538.6757975194155</v>
       </c>
       <c r="X16" t="n">
-        <v>684.6701155358775</v>
+        <v>376.3917504485925</v>
       </c>
       <c r="Y16" t="n">
-        <v>684.6701155358775</v>
+        <v>376.3917504485925</v>
       </c>
     </row>
     <row r="17">
@@ -5492,22 +5492,22 @@
         <v>1614.059487414176</v>
       </c>
       <c r="C17" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D17" t="n">
-        <v>1098.796330498591</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E17" t="n">
-        <v>827.8895422975445</v>
+        <v>827.8895422975454</v>
       </c>
       <c r="F17" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099316</v>
       </c>
       <c r="G17" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803432</v>
       </c>
       <c r="H17" t="n">
-        <v>68.77950792924229</v>
+        <v>68.7795079292423</v>
       </c>
       <c r="I17" t="n">
         <v>62.11912770411553</v>
@@ -5543,10 +5543,10 @@
         <v>3071.119566829235</v>
       </c>
       <c r="T17" t="n">
-        <v>2979.295701071061</v>
+        <v>2979.29570107106</v>
       </c>
       <c r="U17" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188067</v>
       </c>
       <c r="V17" t="n">
         <v>2644.789635573994</v>
@@ -5592,25 +5592,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J18" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K18" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L18" t="n">
-        <v>545.6852136024288</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M18" t="n">
-        <v>1173.45686322911</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N18" t="n">
-        <v>1829.234834439669</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="O18" t="n">
-        <v>2345.75511703065</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P18" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q18" t="n">
         <v>2380.454662679751</v>
@@ -5683,10 +5683,10 @@
         <v>499.9530296343059</v>
       </c>
       <c r="N19" t="n">
-        <v>812.1990332879436</v>
+        <v>683.1426636655151</v>
       </c>
       <c r="O19" t="n">
-        <v>974.9038003296516</v>
+        <v>845.8474307072231</v>
       </c>
       <c r="P19" t="n">
         <v>1094.77996610623</v>
@@ -5735,16 +5735,16 @@
         <v>1098.796330498591</v>
       </c>
       <c r="E20" t="n">
-        <v>827.8895422975443</v>
+        <v>827.8895422975438</v>
       </c>
       <c r="F20" t="n">
-        <v>542.6718405099305</v>
+        <v>542.67184050993</v>
       </c>
       <c r="G20" t="n">
-        <v>261.1858216803421</v>
+        <v>261.1858216803414</v>
       </c>
       <c r="H20" t="n">
-        <v>68.77950792924229</v>
+        <v>68.77950792924091</v>
       </c>
       <c r="I20" t="n">
         <v>62.11912770411553</v>
@@ -5832,22 +5832,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K21" t="n">
-        <v>62.11912770411553</v>
+        <v>318.9689542635005</v>
       </c>
       <c r="L21" t="n">
-        <v>545.6852136024288</v>
+        <v>802.5350401618138</v>
       </c>
       <c r="M21" t="n">
-        <v>1173.45686322911</v>
+        <v>802.5350401618138</v>
       </c>
       <c r="N21" t="n">
-        <v>1829.234834439669</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O21" t="n">
-        <v>1829.234834439669</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P21" t="n">
-        <v>2234.856203156066</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q21" t="n">
         <v>2380.454662679751</v>
@@ -5908,16 +5908,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J22" t="n">
-        <v>62.11912770411553</v>
+        <v>161.4017547291065</v>
       </c>
       <c r="K22" t="n">
-        <v>143.9541688140574</v>
+        <v>243.2367958390484</v>
       </c>
       <c r="L22" t="n">
-        <v>308.0818086878572</v>
+        <v>442.7178209184705</v>
       </c>
       <c r="M22" t="n">
-        <v>499.9530296343059</v>
+        <v>629.0093992567345</v>
       </c>
       <c r="N22" t="n">
         <v>812.1990332879436</v>
@@ -5963,25 +5963,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414178</v>
       </c>
       <c r="C23" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D23" t="n">
-        <v>1098.796330498591</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E23" t="n">
-        <v>827.8895422975445</v>
+        <v>827.8895422975454</v>
       </c>
       <c r="F23" t="n">
-        <v>542.6718405099307</v>
+        <v>542.6718405099316</v>
       </c>
       <c r="G23" t="n">
-        <v>261.1858216803428</v>
+        <v>261.1858216803432</v>
       </c>
       <c r="H23" t="n">
-        <v>68.77950792924184</v>
+        <v>68.77950792924227</v>
       </c>
       <c r="I23" t="n">
         <v>62.11912770411553</v>
@@ -5990,7 +5990,7 @@
         <v>206.7689006129439</v>
       </c>
       <c r="K23" t="n">
-        <v>565.7512566404059</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L23" t="n">
         <v>1059.071548358935</v>
@@ -6020,19 +6020,19 @@
         <v>2979.295701071061</v>
       </c>
       <c r="U23" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188069</v>
       </c>
       <c r="V23" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573996</v>
       </c>
       <c r="W23" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.467337224692</v>
       </c>
       <c r="X23" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840157</v>
       </c>
       <c r="Y23" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="24">
@@ -6066,25 +6066,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J24" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K24" t="n">
-        <v>494.9732559860694</v>
+        <v>346.9752758473781</v>
       </c>
       <c r="L24" t="n">
-        <v>978.5393418843828</v>
+        <v>830.5413617456915</v>
       </c>
       <c r="M24" t="n">
-        <v>1223.947919817482</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="N24" t="n">
-        <v>1223.947919817482</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O24" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P24" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q24" t="n">
         <v>2380.454662679751</v>
@@ -6145,22 +6145,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J25" t="n">
-        <v>62.11912770411553</v>
+        <v>161.4017547291065</v>
       </c>
       <c r="K25" t="n">
-        <v>149.5338114222422</v>
+        <v>243.2367958390484</v>
       </c>
       <c r="L25" t="n">
-        <v>313.661451296042</v>
+        <v>407.3644357128481</v>
       </c>
       <c r="M25" t="n">
-        <v>629.0093992567345</v>
+        <v>593.6560140511122</v>
       </c>
       <c r="N25" t="n">
-        <v>812.1990332879436</v>
+        <v>776.8456480823213</v>
       </c>
       <c r="O25" t="n">
-        <v>974.9038003296516</v>
+        <v>939.5504151240293</v>
       </c>
       <c r="P25" t="n">
         <v>1094.77996610623</v>
@@ -6221,34 +6221,34 @@
         <v>116.7612945678971</v>
       </c>
       <c r="I26" t="n">
-        <v>73.36485894755025</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J26" t="n">
-        <v>218.0146318563783</v>
+        <v>218.0146318563784</v>
       </c>
       <c r="K26" t="n">
-        <v>576.9969878838401</v>
+        <v>670.0483496134135</v>
       </c>
       <c r="L26" t="n">
-        <v>1163.368641331942</v>
+        <v>1256.420003061516</v>
       </c>
       <c r="M26" t="n">
         <v>1802.420903106096</v>
       </c>
       <c r="N26" t="n">
-        <v>2360.20170202598</v>
+        <v>2423.283548473132</v>
       </c>
       <c r="O26" t="n">
-        <v>2893.292664647882</v>
+        <v>2956.374511095034</v>
       </c>
       <c r="P26" t="n">
-        <v>3334.531518508977</v>
+        <v>3397.613364956129</v>
       </c>
       <c r="Q26" t="n">
-        <v>3612.428440379499</v>
+        <v>3612.4284403795</v>
       </c>
       <c r="R26" t="n">
-        <v>3668.242947377512</v>
+        <v>3668.242947377513</v>
       </c>
       <c r="S26" t="n">
         <v>3596.670073605751</v>
@@ -6257,7 +6257,7 @@
         <v>3468.110152452356</v>
       </c>
       <c r="U26" t="n">
-        <v>3307.298104174143</v>
+        <v>3307.298104174144</v>
       </c>
       <c r="V26" t="n">
         <v>3060.13197616485</v>
@@ -6297,22 +6297,22 @@
         <v>211.0495293350377</v>
       </c>
       <c r="H27" t="n">
-        <v>122.7521129356386</v>
+        <v>122.7521129356387</v>
       </c>
       <c r="I27" t="n">
-        <v>73.36485894755025</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J27" t="n">
-        <v>73.36485894755025</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="K27" t="n">
-        <v>330.2146855069349</v>
+        <v>358.2210070908127</v>
       </c>
       <c r="L27" t="n">
-        <v>813.7807714052482</v>
+        <v>841.787092989126</v>
       </c>
       <c r="M27" t="n">
-        <v>813.7807714052482</v>
+        <v>1469.558742615807</v>
       </c>
       <c r="N27" t="n">
         <v>1469.558742615807</v>
@@ -6364,7 +6364,7 @@
         <v>429.0656615517126</v>
       </c>
       <c r="D28" t="n">
-        <v>368.3732297414157</v>
+        <v>368.3732297414156</v>
       </c>
       <c r="E28" t="n">
         <v>307.7550988878065</v>
@@ -6376,58 +6376,58 @@
         <v>172.0564727746017</v>
       </c>
       <c r="H28" t="n">
-        <v>111.518603023284</v>
+        <v>111.5186030232841</v>
       </c>
       <c r="I28" t="n">
-        <v>73.36485894755025</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J28" t="n">
-        <v>136.642478079686</v>
+        <v>136.6424780796862</v>
       </c>
       <c r="K28" t="n">
-        <v>311.5288809192011</v>
+        <v>311.5288809192015</v>
       </c>
       <c r="L28" t="n">
-        <v>568.7078825225742</v>
+        <v>568.7078825225744</v>
       </c>
       <c r="M28" t="n">
-        <v>848.0508225904116</v>
+        <v>848.0508225904118</v>
       </c>
       <c r="N28" t="n">
         <v>1124.291818351194</v>
       </c>
       <c r="O28" t="n">
-        <v>1380.047947122475</v>
+        <v>1380.047947122476</v>
       </c>
       <c r="P28" t="n">
-        <v>1592.975474628627</v>
+        <v>1592.975474628628</v>
       </c>
       <c r="Q28" t="n">
-        <v>1689.449032728251</v>
+        <v>1689.449032728252</v>
       </c>
       <c r="R28" t="n">
         <v>1660.488724648017</v>
       </c>
       <c r="S28" t="n">
-        <v>1552.613322117754</v>
+        <v>1552.613322117755</v>
       </c>
       <c r="T28" t="n">
         <v>1411.834951573177</v>
       </c>
       <c r="U28" t="n">
-        <v>1221.336841102266</v>
+        <v>1221.336841102267</v>
       </c>
       <c r="V28" t="n">
         <v>1050.298177210279</v>
       </c>
       <c r="W28" t="n">
-        <v>861.9084564286447</v>
+        <v>861.9084564286452</v>
       </c>
       <c r="X28" t="n">
-        <v>722.7688154988163</v>
+        <v>722.7688154988166</v>
       </c>
       <c r="Y28" t="n">
-        <v>594.5974356026479</v>
+        <v>594.5974356026483</v>
       </c>
     </row>
     <row r="29">
@@ -6467,13 +6467,13 @@
         <v>763.0997113429868</v>
       </c>
       <c r="L29" t="n">
-        <v>1286.389518343938</v>
+        <v>1256.420003061516</v>
       </c>
       <c r="M29" t="n">
         <v>1832.390418388519</v>
       </c>
       <c r="N29" t="n">
-        <v>2360.201702025981</v>
+        <v>2453.253063755554</v>
       </c>
       <c r="O29" t="n">
         <v>2893.292664647883</v>
@@ -6540,25 +6540,25 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J30" t="n">
-        <v>186.4798411672776</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="K30" t="n">
-        <v>506.2189872295041</v>
+        <v>358.2210070908127</v>
       </c>
       <c r="L30" t="n">
-        <v>989.7850731278173</v>
+        <v>841.787092989126</v>
       </c>
       <c r="M30" t="n">
-        <v>1235.193651060917</v>
+        <v>1469.558742615807</v>
       </c>
       <c r="N30" t="n">
-        <v>1235.193651060917</v>
+        <v>1469.558742615807</v>
       </c>
       <c r="O30" t="n">
-        <v>1751.713933651898</v>
+        <v>1986.079025206788</v>
       </c>
       <c r="P30" t="n">
-        <v>2157.335302368295</v>
+        <v>2391.700393923186</v>
       </c>
       <c r="Q30" t="n">
         <v>2391.700393923186</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>504.330098198535</v>
+        <v>504.3300981985345</v>
       </c>
       <c r="C31" t="n">
-        <v>429.0656615517125</v>
+        <v>429.0656615517122</v>
       </c>
       <c r="D31" t="n">
-        <v>368.3732297414156</v>
+        <v>368.3732297414155</v>
       </c>
       <c r="E31" t="n">
-        <v>307.7550988878065</v>
+        <v>307.7550988878064</v>
       </c>
       <c r="F31" t="n">
         <v>245.3698453879678</v>
       </c>
       <c r="G31" t="n">
-        <v>172.0564727746017</v>
+        <v>172.0564727746018</v>
       </c>
       <c r="H31" t="n">
-        <v>111.518603023284</v>
+        <v>111.5186030232841</v>
       </c>
       <c r="I31" t="n">
         <v>73.36485894755026</v>
       </c>
       <c r="J31" t="n">
-        <v>136.6424780796862</v>
+        <v>136.6424780796859</v>
       </c>
       <c r="K31" t="n">
-        <v>311.5288809192015</v>
+        <v>311.5288809192008</v>
       </c>
       <c r="L31" t="n">
-        <v>568.7078825225744</v>
+        <v>568.7078825225736</v>
       </c>
       <c r="M31" t="n">
-        <v>848.0508225904118</v>
+        <v>848.050822590411</v>
       </c>
       <c r="N31" t="n">
-        <v>1124.291818351194</v>
+        <v>1124.291818351193</v>
       </c>
       <c r="O31" t="n">
-        <v>1380.047947122476</v>
+        <v>1380.047947122475</v>
       </c>
       <c r="P31" t="n">
-        <v>1592.975474628628</v>
+        <v>1592.975474628627</v>
       </c>
       <c r="Q31" t="n">
-        <v>1689.449032728252</v>
+        <v>1689.449032728251</v>
       </c>
       <c r="R31" t="n">
-        <v>1660.488724648017</v>
+        <v>1660.488724648016</v>
       </c>
       <c r="S31" t="n">
-        <v>1552.613322117755</v>
+        <v>1552.613322117754</v>
       </c>
       <c r="T31" t="n">
-        <v>1411.834951573177</v>
+        <v>1411.834951573176</v>
       </c>
       <c r="U31" t="n">
-        <v>1221.336841102267</v>
+        <v>1221.336841102266</v>
       </c>
       <c r="V31" t="n">
-        <v>1050.298177210279</v>
+        <v>1050.298177210278</v>
       </c>
       <c r="W31" t="n">
-        <v>861.9084564286452</v>
+        <v>861.9084564286443</v>
       </c>
       <c r="X31" t="n">
-        <v>722.7688154988166</v>
+        <v>722.7688154988158</v>
       </c>
       <c r="Y31" t="n">
-        <v>594.5974356026483</v>
+        <v>594.5974356026475</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1791.351124222132</v>
+        <v>1743.79887591859</v>
       </c>
       <c r="C32" t="n">
-        <v>1505.586185654427</v>
+        <v>1464.542485303045</v>
       </c>
       <c r="D32" t="n">
-        <v>1227.555619800459</v>
+        <v>1193.020467401238</v>
       </c>
       <c r="E32" t="n">
-        <v>932.3826578463677</v>
+        <v>904.3560533993077</v>
       </c>
       <c r="F32" t="n">
-        <v>622.8987823057098</v>
+        <v>601.3807258108106</v>
       </c>
       <c r="G32" t="n">
-        <v>317.1465897230773</v>
+        <v>302.137081180339</v>
       </c>
       <c r="H32" t="n">
-        <v>100.4741022189324</v>
+        <v>91.97314162835509</v>
       </c>
       <c r="I32" t="n">
-        <v>69.54754824076167</v>
+        <v>67.5551356023451</v>
       </c>
       <c r="J32" t="n">
-        <v>214.1973211495898</v>
+        <v>255.2650543744569</v>
       </c>
       <c r="K32" t="n">
-        <v>573.1796771770516</v>
+        <v>725.8995309769016</v>
       </c>
       <c r="L32" t="n">
-        <v>1066.49996889558</v>
+        <v>1330.871943270413</v>
       </c>
       <c r="M32" t="n">
-        <v>1612.500868940161</v>
+        <v>1876.872843314994</v>
       </c>
       <c r="N32" t="n">
-        <v>2140.312152577623</v>
+        <v>2404.684126952456</v>
       </c>
       <c r="O32" t="n">
-        <v>2685.624846197022</v>
+        <v>2844.723727844785</v>
       </c>
       <c r="P32" t="n">
-        <v>3139.085431055614</v>
+        <v>3192.911219976307</v>
       </c>
       <c r="Q32" t="n">
-        <v>3429.204083923632</v>
+        <v>3377.756780117255</v>
       </c>
       <c r="R32" t="n">
-        <v>3477.377412038084</v>
+        <v>3377.756780117255</v>
       </c>
       <c r="S32" t="n">
-        <v>3418.274419908498</v>
+        <v>3325.162335939831</v>
       </c>
       <c r="T32" t="n">
-        <v>3302.184380397279</v>
+        <v>3215.580844380773</v>
       </c>
       <c r="U32" t="n">
-        <v>3153.842213761242</v>
+        <v>3073.747225696897</v>
       </c>
       <c r="V32" t="n">
-        <v>2919.145967394125</v>
+        <v>2845.55952728194</v>
       </c>
       <c r="W32" t="n">
-        <v>2655.557495291777</v>
+        <v>2588.479603131753</v>
       </c>
       <c r="X32" t="n">
-        <v>2373.515453154198</v>
+        <v>2312.946108946335</v>
       </c>
       <c r="Y32" t="n">
-        <v>2084.435307004164</v>
+        <v>2030.374510748461</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>868.9135313807926</v>
+        <v>866.9211187423761</v>
       </c>
       <c r="C33" t="n">
-        <v>718.2593009408848</v>
+        <v>716.2668883024683</v>
       </c>
       <c r="D33" t="n">
-        <v>588.1703335623652</v>
+        <v>586.1779209239486</v>
       </c>
       <c r="E33" t="n">
-        <v>451.7238426732529</v>
+        <v>449.7314300348363</v>
       </c>
       <c r="F33" t="n">
-        <v>327.2920365563847</v>
+        <v>325.2996239179681</v>
       </c>
       <c r="G33" t="n">
-        <v>207.2322186282491</v>
+        <v>205.2398059898326</v>
       </c>
       <c r="H33" t="n">
-        <v>118.9348022288501</v>
+        <v>116.9423895904335</v>
       </c>
       <c r="I33" t="n">
-        <v>69.54754824076167</v>
+        <v>67.5551356023451</v>
       </c>
       <c r="J33" t="n">
-        <v>69.54754824076167</v>
+        <v>67.5551356023451</v>
       </c>
       <c r="K33" t="n">
-        <v>389.2866943029881</v>
+        <v>102.254681251447</v>
       </c>
       <c r="L33" t="n">
-        <v>872.8527802013014</v>
+        <v>585.8207671497603</v>
       </c>
       <c r="M33" t="n">
-        <v>872.8527802013014</v>
+        <v>1213.592416776441</v>
       </c>
       <c r="N33" t="n">
-        <v>1231.376340354128</v>
+        <v>1869.370387987</v>
       </c>
       <c r="O33" t="n">
-        <v>1747.89662294511</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="P33" t="n">
-        <v>2153.517991661507</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="Q33" t="n">
-        <v>2387.883083216398</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="R33" t="n">
-        <v>2363.966040114462</v>
+        <v>2361.973627476046</v>
       </c>
       <c r="S33" t="n">
-        <v>2229.035363014331</v>
+        <v>2227.042950375915</v>
       </c>
       <c r="T33" t="n">
-        <v>2052.051551213239</v>
+        <v>2050.059138574823</v>
       </c>
       <c r="U33" t="n">
-        <v>1841.988407891881</v>
+        <v>1839.995995253465</v>
       </c>
       <c r="V33" t="n">
-        <v>1619.448406262948</v>
+        <v>1617.455993624532</v>
       </c>
       <c r="W33" t="n">
-        <v>1389.331160396235</v>
+        <v>1387.338747757819</v>
       </c>
       <c r="X33" t="n">
-        <v>1200.024082746247</v>
+        <v>1198.03167010783</v>
       </c>
       <c r="Y33" t="n">
-        <v>1020.709865821754</v>
+        <v>1018.717453183337</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>413.2236159965139</v>
+        <v>365.671367692972</v>
       </c>
       <c r="C34" t="n">
-        <v>350.4290609918675</v>
+        <v>309.3853606404863</v>
       </c>
       <c r="D34" t="n">
-        <v>302.2065108237467</v>
+        <v>267.6713584245263</v>
       </c>
       <c r="E34" t="n">
-        <v>254.0582616123136</v>
+        <v>226.031657165254</v>
       </c>
       <c r="F34" t="n">
-        <v>204.142889754651</v>
+        <v>182.6248332597521</v>
       </c>
       <c r="G34" t="n">
-        <v>143.299398783461</v>
+        <v>128.2898902407229</v>
       </c>
       <c r="H34" t="n">
-        <v>95.23141067431936</v>
+        <v>86.73045008374203</v>
       </c>
       <c r="I34" t="n">
-        <v>69.54754824076167</v>
+        <v>67.5551356023451</v>
       </c>
       <c r="J34" t="n">
-        <v>145.0468983703943</v>
+        <v>67.5551356023451</v>
       </c>
       <c r="K34" t="n">
-        <v>332.1550322074062</v>
+        <v>149.390176712287</v>
       </c>
       <c r="L34" t="n">
-        <v>601.5557648082761</v>
+        <v>425.1699371610696</v>
       </c>
       <c r="M34" t="n">
-        <v>893.1204358736102</v>
+        <v>723.1136360743164</v>
       </c>
       <c r="N34" t="n">
-        <v>1181.58316263189</v>
+        <v>1017.955390680509</v>
       </c>
       <c r="O34" t="n">
-        <v>1344.287929673598</v>
+        <v>1256.686073727027</v>
       </c>
       <c r="P34" t="n">
-        <v>1482.691419376595</v>
+        <v>1376.562239503606</v>
       </c>
       <c r="Q34" t="n">
-        <v>1486.113615746646</v>
+        <v>1379.984435873657</v>
       </c>
       <c r="R34" t="n">
-        <v>1469.623189308587</v>
+        <v>1370.002557387759</v>
       </c>
       <c r="S34" t="n">
-        <v>1374.217668420501</v>
+        <v>1281.105584451833</v>
       </c>
       <c r="T34" t="n">
-        <v>1245.9091795181</v>
+        <v>1159.305643501593</v>
       </c>
       <c r="U34" t="n">
-        <v>1067.880950689365</v>
+        <v>987.785962625019</v>
       </c>
       <c r="V34" t="n">
-        <v>909.3121684395535</v>
+        <v>835.7257283273684</v>
       </c>
       <c r="W34" t="n">
-        <v>733.3923293000955</v>
+        <v>666.3144371400713</v>
       </c>
       <c r="X34" t="n">
-        <v>606.722570012443</v>
+        <v>546.1532258045795</v>
       </c>
       <c r="Y34" t="n">
-        <v>491.0210717584508</v>
+        <v>436.9602755027481</v>
       </c>
     </row>
     <row r="35">
@@ -6965,10 +6965,10 @@
         <v>3071.119566829235</v>
       </c>
       <c r="T35" t="n">
-        <v>2979.29570107106</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U35" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V35" t="n">
         <v>2644.789635573994</v>
@@ -7017,22 +7017,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K36" t="n">
-        <v>381.858273766342</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L36" t="n">
-        <v>865.4243596646552</v>
+        <v>174.7633905351325</v>
       </c>
       <c r="M36" t="n">
-        <v>865.4243596646552</v>
+        <v>802.5350401618138</v>
       </c>
       <c r="N36" t="n">
-        <v>1223.947919817482</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O36" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P36" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q36" t="n">
         <v>2380.454662679751</v>
@@ -7093,28 +7093,28 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J37" t="n">
-        <v>62.11912770411553</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K37" t="n">
-        <v>143.9541688140574</v>
+        <v>243.2367958390485</v>
       </c>
       <c r="L37" t="n">
-        <v>437.1381783102856</v>
+        <v>407.3644357128483</v>
       </c>
       <c r="M37" t="n">
-        <v>623.4297566485496</v>
+        <v>593.6560140511123</v>
       </c>
       <c r="N37" t="n">
-        <v>806.6193906797589</v>
+        <v>776.8456480823215</v>
       </c>
       <c r="O37" t="n">
-        <v>969.3241577214669</v>
+        <v>939.5504151240295</v>
       </c>
       <c r="P37" t="n">
-        <v>1089.200323498045</v>
+        <v>1059.426580900608</v>
       </c>
       <c r="Q37" t="n">
-        <v>1092.622519868096</v>
+        <v>1090.581152532863</v>
       </c>
       <c r="R37" t="n">
         <v>1098.20216247628</v>
@@ -7154,19 +7154,19 @@
         <v>1352.560722599516</v>
       </c>
       <c r="D38" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498593</v>
       </c>
       <c r="E38" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975456</v>
       </c>
       <c r="F38" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099318</v>
       </c>
       <c r="G38" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803435</v>
       </c>
       <c r="H38" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I38" t="n">
         <v>62.11912770411553</v>
@@ -7251,25 +7251,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J39" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K39" t="n">
-        <v>494.9732559860694</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L39" t="n">
-        <v>978.5393418843826</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M39" t="n">
-        <v>1223.947919817482</v>
+        <v>1493.196009291336</v>
       </c>
       <c r="N39" t="n">
-        <v>1223.947919817482</v>
+        <v>1863.93438008877</v>
       </c>
       <c r="O39" t="n">
-        <v>1740.468202408463</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P39" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q39" t="n">
         <v>2380.454662679751</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C40" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D40" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E40" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F40" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G40" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H40" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I40" t="n">
         <v>62.11912770411553</v>
@@ -7339,19 +7339,19 @@
         <v>308.0818086878572</v>
       </c>
       <c r="M40" t="n">
-        <v>494.3733870261212</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N40" t="n">
-        <v>677.5630210573304</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O40" t="n">
-        <v>840.2677880990384</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P40" t="n">
-        <v>960.1439538756169</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q40" t="n">
-        <v>1092.622519868097</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R40" t="n">
         <v>1098.20216247628</v>
@@ -7360,22 +7360,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T40" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U40" t="n">
-        <v>769.2584451161897</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V40" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W40" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X40" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y40" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="41">
@@ -7385,43 +7385,43 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414178</v>
       </c>
       <c r="C41" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599517</v>
       </c>
       <c r="D41" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498593</v>
       </c>
       <c r="E41" t="n">
-        <v>827.8895422975447</v>
+        <v>827.8895422975456</v>
       </c>
       <c r="F41" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099318</v>
       </c>
       <c r="G41" t="n">
-        <v>261.1858216803425</v>
+        <v>261.1858216803435</v>
       </c>
       <c r="H41" t="n">
-        <v>68.77950792924226</v>
+        <v>68.77950792924224</v>
       </c>
       <c r="I41" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J41" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129445</v>
       </c>
       <c r="K41" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404064</v>
       </c>
       <c r="L41" t="n">
-        <v>1059.071548358934</v>
+        <v>1059.071548358935</v>
       </c>
       <c r="M41" t="n">
-        <v>1605.072448403515</v>
+        <v>1605.072448403516</v>
       </c>
       <c r="N41" t="n">
-        <v>2132.883732040977</v>
+        <v>2132.883732040978</v>
       </c>
       <c r="O41" t="n">
         <v>2572.923332933306</v>
@@ -7430,10 +7430,10 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q41" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="R41" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S41" t="n">
         <v>3071.119566829236</v>
@@ -7451,10 +7451,10 @@
         <v>2405.467337224691</v>
       </c>
       <c r="X41" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840157</v>
       </c>
       <c r="Y41" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="42">
@@ -7488,25 +7488,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J42" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K42" t="n">
-        <v>494.9732559860694</v>
+        <v>96.81867335321709</v>
       </c>
       <c r="L42" t="n">
-        <v>978.5393418843826</v>
+        <v>580.3847592515303</v>
       </c>
       <c r="M42" t="n">
-        <v>1223.947919817482</v>
+        <v>1208.156408878212</v>
       </c>
       <c r="N42" t="n">
-        <v>1223.947919817482</v>
+        <v>1863.93438008877</v>
       </c>
       <c r="O42" t="n">
-        <v>1740.468202408463</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P42" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q42" t="n">
         <v>2380.454662679751</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>235.9319791885596</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C43" t="n">
-        <v>197.4035979369573</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D43" t="n">
-        <v>173.4472215218805</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E43" t="n">
-        <v>149.5651460634914</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F43" t="n">
-        <v>123.9159479588728</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G43" t="n">
-        <v>87.33863074072679</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H43" t="n">
-        <v>63.5368163846292</v>
+        <v>63.53681638462918</v>
       </c>
       <c r="I43" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J43" t="n">
-        <v>161.4017547291066</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K43" t="n">
-        <v>243.2367958390484</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L43" t="n">
-        <v>407.3644357128482</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M43" t="n">
-        <v>593.6560140511123</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N43" t="n">
-        <v>776.8456480823215</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O43" t="n">
-        <v>967.282790386234</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P43" t="n">
-        <v>1087.158956162813</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q43" t="n">
-        <v>1090.581152532863</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R43" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S43" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T43" t="n">
-        <v>923.020500191881</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U43" t="n">
-        <v>769.2584451161904</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V43" t="n">
-        <v>634.9558366194231</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W43" t="n">
-        <v>483.3021712330091</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X43" t="n">
-        <v>380.8985856984007</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y43" t="n">
-        <v>289.4632611974525</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="44">
@@ -7622,25 +7622,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414176</v>
       </c>
       <c r="C44" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599515</v>
       </c>
       <c r="D44" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498591</v>
       </c>
       <c r="E44" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975447</v>
       </c>
       <c r="F44" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099309</v>
       </c>
       <c r="G44" t="n">
         <v>261.185821680343</v>
       </c>
       <c r="H44" t="n">
-        <v>68.77950792924226</v>
+        <v>68.77950792924217</v>
       </c>
       <c r="I44" t="n">
         <v>62.11912770411553</v>
@@ -7673,22 +7673,22 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S44" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T44" t="n">
         <v>2979.295701071061</v>
       </c>
       <c r="U44" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188067</v>
       </c>
       <c r="V44" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W44" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X44" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840155</v>
       </c>
       <c r="Y44" t="n">
         <v>1882.877496443165</v>
@@ -7734,16 +7734,16 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M45" t="n">
-        <v>978.5393418843826</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N45" t="n">
-        <v>1223.947919817482</v>
+        <v>1863.93438008877</v>
       </c>
       <c r="O45" t="n">
-        <v>1740.468202408463</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P45" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q45" t="n">
         <v>2380.454662679751</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>235.9319791885596</v>
+        <v>235.931979188559</v>
       </c>
       <c r="C46" t="n">
-        <v>197.4035979369573</v>
+        <v>197.4035979369567</v>
       </c>
       <c r="D46" t="n">
-        <v>173.4472215218805</v>
+        <v>173.44722152188</v>
       </c>
       <c r="E46" t="n">
-        <v>149.5651460634914</v>
+        <v>149.5651460634911</v>
       </c>
       <c r="F46" t="n">
-        <v>123.9159479588728</v>
+        <v>123.9159479588725</v>
       </c>
       <c r="G46" t="n">
-        <v>87.33863074072679</v>
+        <v>87.3386307407266</v>
       </c>
       <c r="H46" t="n">
-        <v>63.5368163846292</v>
+        <v>63.53681638462911</v>
       </c>
       <c r="I46" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J46" t="n">
-        <v>67.69877031229981</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K46" t="n">
-        <v>278.5901810446702</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L46" t="n">
-        <v>442.71782091847</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M46" t="n">
-        <v>629.009399256734</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N46" t="n">
-        <v>812.1990332879432</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O46" t="n">
-        <v>974.9038003296512</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P46" t="n">
-        <v>1094.77996610623</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q46" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.202162476279</v>
       </c>
       <c r="R46" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.202162476279</v>
       </c>
       <c r="S46" t="n">
-        <v>1027.062815341238</v>
+        <v>1027.062815341237</v>
       </c>
       <c r="T46" t="n">
-        <v>923.020500191881</v>
+        <v>923.0205001918799</v>
       </c>
       <c r="U46" t="n">
-        <v>769.2584451161904</v>
+        <v>769.2584451161894</v>
       </c>
       <c r="V46" t="n">
-        <v>634.9558366194231</v>
+        <v>634.9558366194221</v>
       </c>
       <c r="W46" t="n">
-        <v>483.3021712330091</v>
+        <v>483.3021712330083</v>
       </c>
       <c r="X46" t="n">
-        <v>380.8985856984007</v>
+        <v>380.8985856983999</v>
       </c>
       <c r="Y46" t="n">
-        <v>289.4632611974525</v>
+        <v>289.4632611974517</v>
       </c>
     </row>
   </sheetData>
@@ -7976,19 +7976,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K2" t="n">
         <v>143.0584031792374</v>
       </c>
       <c r="L2" t="n">
-        <v>598.0280491872223</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M2" t="n">
-        <v>693.4207940321648</v>
+        <v>596.2369171848084</v>
       </c>
       <c r="N2" t="n">
-        <v>682.2612020826953</v>
+        <v>667.9090757920147</v>
       </c>
       <c r="O2" t="n">
         <v>594.0482827698827</v>
@@ -7997,7 +7997,7 @@
         <v>150.3014472409252</v>
       </c>
       <c r="Q2" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R2" t="n">
         <v>102.5176150018526</v>
@@ -8055,25 +8055,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J3" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K3" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L3" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M3" t="n">
-        <v>636.0828644837495</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N3" t="n">
-        <v>629.0678552886043</v>
+        <v>537.1052683063423</v>
       </c>
       <c r="O3" t="n">
-        <v>432.92853148445</v>
+        <v>611.4781433431195</v>
       </c>
       <c r="P3" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q3" t="n">
         <v>327.7205688679246</v>
@@ -8213,28 +8213,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K5" t="n">
-        <v>505.666843611017</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L5" t="n">
-        <v>651.5514946987026</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M5" t="n">
-        <v>693.4207940321648</v>
+        <v>556.1230176353725</v>
       </c>
       <c r="N5" t="n">
-        <v>682.2612020826953</v>
+        <v>667.9090757920147</v>
       </c>
       <c r="O5" t="n">
-        <v>364.6290838376819</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P5" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q5" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R5" t="n">
         <v>102.5176150018526</v>
@@ -8292,22 +8292,22 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J6" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K6" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L6" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M6" t="n">
-        <v>265.5945316656623</v>
+        <v>544.1202775014875</v>
       </c>
       <c r="N6" t="n">
         <v>85.37211285416666</v>
       </c>
       <c r="O6" t="n">
-        <v>614.4252180716981</v>
+        <v>611.4781433431195</v>
       </c>
       <c r="P6" t="n">
         <v>496.801919078302</v>
@@ -8529,19 +8529,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J9" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K9" t="n">
         <v>89.59693533333335</v>
       </c>
       <c r="L9" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
-        <v>674.5394322581658</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N9" t="n">
-        <v>676.7842391234617</v>
+        <v>656.228399718133</v>
       </c>
       <c r="O9" t="n">
         <v>614.4252180716981</v>
@@ -8769,16 +8769,16 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K12" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L12" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M12" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N12" t="n">
-        <v>136.3731801151487</v>
+        <v>684.2495388215582</v>
       </c>
       <c r="O12" t="n">
         <v>614.4252180716981</v>
@@ -8787,7 +8787,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q12" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -9182,7 +9182,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q17" t="n">
-        <v>331.2113854294514</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R17" t="n">
         <v>102.5176150018526</v>
@@ -9240,10 +9240,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K18" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L18" t="n">
         <v>578.5109386733963</v>
@@ -9252,16 +9252,16 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N18" t="n">
-        <v>747.7741039759435</v>
+        <v>220.8844470939643</v>
       </c>
       <c r="O18" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P18" t="n">
-        <v>122.133410929518</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q18" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R18" t="n">
         <v>71.01380490566048</v>
@@ -9480,25 +9480,25 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K21" t="n">
-        <v>89.59693533333335</v>
+        <v>349.0412045852374</v>
       </c>
       <c r="L21" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N21" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O21" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P21" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q21" t="n">
-        <v>238.0573041899393</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R21" t="n">
         <v>71.01380490566048</v>
@@ -9714,16 +9714,16 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K24" t="n">
-        <v>412.5657697396227</v>
+        <v>377.3304183063258</v>
       </c>
       <c r="L24" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
-        <v>340.274574506988</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N24" t="n">
         <v>85.37211285416652</v>
@@ -9735,7 +9735,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q24" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R24" t="n">
         <v>71.01380490566048</v>
@@ -9954,16 +9954,16 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K27" t="n">
-        <v>349.0412045852371</v>
+        <v>377.3304183063258</v>
       </c>
       <c r="L27" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N27" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O27" t="n">
         <v>614.4252180716981</v>
@@ -10188,16 +10188,16 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K30" t="n">
-        <v>412.5657697396227</v>
+        <v>377.3304183063258</v>
       </c>
       <c r="L30" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>340.274574506988</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N30" t="n">
         <v>85.37211285416666</v>
@@ -10209,7 +10209,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q30" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R30" t="n">
         <v>71.01380490566048</v>
@@ -10428,25 +10428,25 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K33" t="n">
-        <v>412.5657697396227</v>
+        <v>124.6469814435373</v>
       </c>
       <c r="L33" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N33" t="n">
-        <v>447.5171231095475</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O33" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P33" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q33" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R33" t="n">
         <v>71.01380490566048</v>
@@ -10665,16 +10665,16 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K36" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L36" t="n">
-        <v>578.5109386733963</v>
+        <v>203.8424305246122</v>
       </c>
       <c r="M36" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N36" t="n">
-        <v>447.5171231095475</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O36" t="n">
         <v>614.4252180716981</v>
@@ -10683,7 +10683,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q36" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R36" t="n">
         <v>71.01380490566048</v>
@@ -10899,7 +10899,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K39" t="n">
         <v>412.5657697396227</v>
@@ -10908,19 +10908,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
-        <v>340.2745745069883</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N39" t="n">
-        <v>85.37211285416666</v>
+        <v>459.8553156798577</v>
       </c>
       <c r="O39" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P39" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q39" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R39" t="n">
         <v>71.01380490566048</v>
@@ -11136,28 +11136,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K42" t="n">
-        <v>412.5657697396227</v>
+        <v>124.6469814435369</v>
       </c>
       <c r="L42" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
-        <v>340.2745745069883</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N42" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O42" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P42" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q42" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R42" t="n">
         <v>71.01380490566048</v>
@@ -11382,19 +11382,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N45" t="n">
-        <v>333.2595653118431</v>
+        <v>345.5977578821532</v>
       </c>
       <c r="O45" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P45" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q45" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R45" t="n">
         <v>71.01380490566048</v>
@@ -23258,16 +23258,16 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>311.1090199032338</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>310.5084051007669</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>341.6471816905901</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>93.77010711362797</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23315,13 +23315,13 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>267.6074288087848</v>
       </c>
       <c r="W11" t="n">
-        <v>296.2107322866634</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>157.5968327219058</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23413,25 +23413,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>112.2776261096563</v>
       </c>
       <c r="C13" t="n">
-        <v>97.4247543599387</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>47.17856700096472</v>
+        <v>82.99846957177839</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>5.052039007330265</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>82.84545313338894</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>51.58366707901679</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23470,13 +23470,13 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>211.5060914457861</v>
       </c>
       <c r="V13" t="n">
-        <v>192.241239332652</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>209.4187856534022</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23510,10 +23510,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>249.7639075344423</v>
       </c>
       <c r="I14" t="n">
-        <v>65.87543334372785</v>
+        <v>65.87543334372786</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23546,19 +23546,19 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>77.41436949859502</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>182.1168898750154</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>267.6074288087848</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>296.2107322866634</v>
+        <v>296.2107322866635</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>277.3747806479531</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23650,13 +23650,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>112.2776261096563</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>97.42475435993872</v>
       </c>
       <c r="D16" t="n">
-        <v>82.99846957177843</v>
+        <v>82.99846957177844</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23665,7 +23665,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>95.49320096681696</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>8.266667161976763</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23713,10 +23713,10 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>209.4187856534022</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>104.0434629449863</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>149.8026281767911</v>
@@ -23747,7 +23747,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23987,7 +23987,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>1.350599632132798e-12</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>974042.6161007601</v>
+        <v>972538.7470663593</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>974042.6161007601</v>
+        <v>972538.7470663593</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>877252.4844252265</v>
+        <v>877252.4844252268</v>
       </c>
     </row>
     <row r="6">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>984215.5732369032</v>
+        <v>984215.5732369031</v>
       </c>
     </row>
     <row r="9">
@@ -26314,34 +26314,34 @@
         <v>342631.1383773779</v>
       </c>
       <c r="C2" t="n">
-        <v>342631.1383773779</v>
+        <v>342631.1383773778</v>
       </c>
       <c r="D2" t="n">
-        <v>342631.1383773779</v>
+        <v>342631.1383773778</v>
       </c>
       <c r="E2" t="n">
         <v>302782.1445063608</v>
       </c>
       <c r="F2" t="n">
-        <v>302782.144506361</v>
+        <v>302782.1445063609</v>
       </c>
       <c r="G2" t="n">
         <v>342631.1383773781</v>
       </c>
       <c r="H2" t="n">
-        <v>342631.1383773782</v>
+        <v>342631.1383773781</v>
       </c>
       <c r="I2" t="n">
         <v>342631.1383773779</v>
       </c>
       <c r="J2" t="n">
-        <v>342631.1383773781</v>
+        <v>342631.1383773779</v>
       </c>
       <c r="K2" t="n">
         <v>342631.1383773779</v>
       </c>
       <c r="L2" t="n">
-        <v>342631.1383773771</v>
+        <v>342631.1383773782</v>
       </c>
       <c r="M2" t="n">
         <v>342631.1383773781</v>
@@ -26353,7 +26353,7 @@
         <v>342631.1383773781</v>
       </c>
       <c r="P2" t="n">
-        <v>342631.1383773782</v>
+        <v>342631.1383773781</v>
       </c>
     </row>
     <row r="3">
@@ -26363,13 +26363,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>182204.948291856</v>
+        <v>173858.6570340551</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>14822.14031062176</v>
+        <v>22558.42953401347</v>
       </c>
       <c r="E3" t="n">
         <v>112122.5614740446</v>
@@ -26378,7 +26378,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>47425.32553668188</v>
+        <v>47425.3255366819</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>1.82055073001076e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>206802.1491945025</v>
+        <v>200285.8640399293</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>57301.47179728534</v>
+        <v>62456.24177539668</v>
       </c>
       <c r="M3" t="n">
-        <v>42200.82945962297</v>
+        <v>43252.52447081116</v>
       </c>
       <c r="N3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>27767.69404277125</v>
+        <v>27767.69404277131</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>221554.611048951</v>
+        <v>226762.9162907735</v>
       </c>
       <c r="C4" t="n">
-        <v>221554.611048951</v>
+        <v>226762.9162907735</v>
       </c>
       <c r="D4" t="n">
         <v>211575.8953047903</v>
@@ -26439,25 +26439,25 @@
         <v>186364.8769761035</v>
       </c>
       <c r="J4" t="n">
-        <v>187115.3694404866</v>
+        <v>187115.3694404867</v>
       </c>
       <c r="K4" t="n">
         <v>187115.3694404867</v>
       </c>
       <c r="L4" t="n">
-        <v>186859.7955400033</v>
+        <v>186726.4009309486</v>
       </c>
       <c r="M4" t="n">
-        <v>186364.8769761036</v>
+        <v>186364.8769761035</v>
       </c>
       <c r="N4" t="n">
         <v>186364.8769761036</v>
       </c>
       <c r="O4" t="n">
-        <v>186364.8769761035</v>
+        <v>186364.8769761036</v>
       </c>
       <c r="P4" t="n">
-        <v>186364.8769761035</v>
+        <v>186364.8769761036</v>
       </c>
     </row>
     <row r="5">
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>66684.30114001381</v>
+        <v>65170.06753481722</v>
       </c>
       <c r="C5" t="n">
-        <v>66684.30114001381</v>
+        <v>65170.06753481722</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
@@ -26497,7 +26497,7 @@
         <v>63659.0452539195</v>
       </c>
       <c r="L5" t="n">
-        <v>61795.73629173852</v>
+        <v>60823.19813315423</v>
       </c>
       <c r="M5" t="n">
         <v>58169.76931551966</v>
@@ -26506,7 +26506,7 @@
         <v>58169.76931551966</v>
       </c>
       <c r="O5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551967</v>
       </c>
       <c r="P5" t="n">
         <v>58169.76931551966</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-127812.722103443</v>
+        <v>-123160.502482268</v>
       </c>
       <c r="C6" t="n">
-        <v>54392.22618841303</v>
+        <v>50698.154551787</v>
       </c>
       <c r="D6" t="n">
-        <v>46647.64548479265</v>
+        <v>38911.35626140083</v>
       </c>
       <c r="E6" t="n">
-        <v>-1132.397152045683</v>
+        <v>-1342.128698735282</v>
       </c>
       <c r="F6" t="n">
-        <v>110990.1643219991</v>
+        <v>110780.4327753095</v>
       </c>
       <c r="G6" t="n">
-        <v>50671.1665490731</v>
+        <v>50671.16654907304</v>
       </c>
       <c r="H6" t="n">
-        <v>98096.49208575502</v>
+        <v>98096.49208575496</v>
       </c>
       <c r="I6" t="n">
-        <v>98096.49208575464</v>
+        <v>98096.49208575455</v>
       </c>
       <c r="J6" t="n">
-        <v>-114945.4255115305</v>
+        <v>-108429.1403569575</v>
       </c>
       <c r="K6" t="n">
-        <v>91856.72368297173</v>
+        <v>91856.72368297176</v>
       </c>
       <c r="L6" t="n">
-        <v>36674.13474835001</v>
+        <v>32625.29753787875</v>
       </c>
       <c r="M6" t="n">
-        <v>55895.66262613187</v>
+        <v>54843.9676149438</v>
       </c>
       <c r="N6" t="n">
         <v>98096.49208575484</v>
       </c>
       <c r="O6" t="n">
-        <v>70328.79804298363</v>
+        <v>70328.79804298357</v>
       </c>
       <c r="P6" t="n">
-        <v>98096.49208575499</v>
+        <v>98096.49208575487</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="F2" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="G2" t="n">
         <v>130.3599693155843</v>
@@ -26713,7 +26713,7 @@
         <v>93.99127447431646</v>
       </c>
       <c r="L2" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="M2" t="n">
         <v>130.3599693155844</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344376</v>
+        <v>518.7905844542306</v>
       </c>
       <c r="C4" t="n">
-        <v>543.6957424344376</v>
+        <v>518.7905844542306</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
@@ -26811,13 +26811,13 @@
         <v>776.4890963014442</v>
       </c>
       <c r="J4" t="n">
-        <v>917.0607368443781</v>
+        <v>917.0607368443782</v>
       </c>
       <c r="K4" t="n">
         <v>917.0607368443783</v>
       </c>
       <c r="L4" t="n">
-        <v>869.3443530095209</v>
+        <v>844.4391950293139</v>
       </c>
       <c r="M4" t="n">
         <v>776.4890963014441</v>
@@ -26826,7 +26826,7 @@
         <v>776.4890963014441</v>
       </c>
       <c r="O4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014442</v>
       </c>
       <c r="P4" t="n">
         <v>776.4890963014441</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>59.28165692085236</v>
+        <v>59.28165692085237</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>34.7096175534641</v>
+        <v>34.70961755346414</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>71.62683974660668</v>
+        <v>78.07030221924585</v>
       </c>
       <c r="M2" t="n">
-        <v>24.0235120155136</v>
+        <v>17.58004954287445</v>
       </c>
       <c r="N2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346406</v>
+        <v>34.70961755346414</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344376</v>
+        <v>518.7905844542306</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>47.71638383485742</v>
+        <v>72.62154181506446</v>
       </c>
       <c r="E4" t="n">
         <v>185.076970032149</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.2673829773715</v>
+        <v>659.3622249971646</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>92.2217133240722</v>
+        <v>117.1268713042792</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>59.28165692085236</v>
+        <v>59.28165692085237</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.7096175534641</v>
+        <v>34.70961755346414</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>543.6957424344376</v>
+        <v>518.7905844542306</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>47.71638383485742</v>
+        <v>72.62154181506446</v>
       </c>
       <c r="M4" t="n">
         <v>185.076970032149</v>
@@ -27376,16 +27376,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>396.4897982542829</v>
+        <v>325.2001676020295</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27394,10 +27394,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,16 +27424,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>338.6857412035168</v>
@@ -27442,10 +27442,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
-        <v>259.2542194197306</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="3">
@@ -27467,10 +27467,10 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>66.31852263745979</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27509,10 +27509,10 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>106.6157057928207</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -27537,10 +27537,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
-        <v>66.12369447580238</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>154.0032240193895</v>
@@ -27594,7 +27594,7 @@
         <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
-        <v>263.319551727384</v>
+        <v>160.9401794485156</v>
       </c>
       <c r="W4" t="n">
         <v>280.4970980481341</v>
@@ -27616,13 +27616,13 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27631,7 +27631,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,22 +27664,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
-        <v>338.6857412035168</v>
+        <v>109.4880295282505</v>
       </c>
       <c r="W5" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
-        <v>232.0584322581591</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
         <v>392.5258019886049</v>
@@ -27707,13 +27707,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>48.86991870270138</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,13 +27740,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>124.5704364758553</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -27777,16 +27777,16 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
-        <v>18.46874051860286</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>153.923765528121</v>
@@ -27825,16 +27825,16 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>263.319551727384</v>
+        <v>53.40477792676228</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
         <v>231.7395189948467</v>
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>92.48239428282028</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27865,10 +27865,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>355.5205571612282</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
         <v>136.9537457384598</v>
@@ -27910,7 +27910,7 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
         <v>367.2890446813954</v>
@@ -28008,31 +28008,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.19370556623579</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
-        <v>155.7526754391568</v>
+        <v>50.49999916850471</v>
       </c>
       <c r="G10" t="n">
         <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>200.7879229792761</v>
@@ -28065,7 +28065,7 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>263.319551727384</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="C11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="D11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="E11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="F11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="G11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="H11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="I11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="T11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="U11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="V11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="W11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="X11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="Y11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473201</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="C13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="D13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="E13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="F13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="G13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="H13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="I13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="J13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="K13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="L13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="M13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="N13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="O13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="P13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="Q13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="R13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="S13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="T13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="U13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="V13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="W13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="X13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="Y13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473201</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="C14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="D14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="E14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="F14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="G14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="H14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="I14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="T14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="U14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="V14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="W14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="X14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="Y14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="C16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="D16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="E16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="F16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="G16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="H16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="I16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="J16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="K16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="L16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="M16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="N16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="O16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="P16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="Q16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="R16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="S16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="T16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="U16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="V16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="W16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="X16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="Y16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
     </row>
     <row r="17">
@@ -28755,13 +28755,13 @@
         <v>0</v>
       </c>
       <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="n">
         <v>130.3599693155843</v>
-      </c>
-      <c r="O19" t="n">
-        <v>0</v>
-      </c>
-      <c r="P19" t="n">
-        <v>0</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -28980,19 +28980,19 @@
         <v>130.3599693155843</v>
       </c>
       <c r="J22" t="n">
-        <v>30.07448747215907</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>35.71049010668918</v>
       </c>
       <c r="M22" t="n">
-        <v>5.636002634530001</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>130.3599693155843</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -29217,16 +29217,16 @@
         <v>130.3599693155843</v>
       </c>
       <c r="J25" t="n">
-        <v>30.07448747215907</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="K25" t="n">
-        <v>5.636002634530129</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>130.3599693155843</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -29235,7 +29235,7 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>35.71049010668918</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -29299,16 +29299,16 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L26" t="n">
         <v>93.99127447431646</v>
       </c>
       <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
         <v>93.99127447431646</v>
-      </c>
-      <c r="N26" t="n">
-        <v>30.27223765901169</v>
       </c>
       <c r="O26" t="n">
         <v>93.99127447431646</v>
@@ -29317,7 +29317,7 @@
         <v>93.99127447431646</v>
       </c>
       <c r="Q26" t="n">
-        <v>93.99127447431646</v>
+        <v>30.27223765901226</v>
       </c>
       <c r="R26" t="n">
         <v>93.99127447431646</v>
@@ -29454,7 +29454,7 @@
         <v>93.99127447431646</v>
       </c>
       <c r="J28" t="n">
-        <v>93.99127447431636</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K28" t="n">
         <v>93.99127447431646</v>
@@ -29539,16 +29539,16 @@
         <v>93.99127447431646</v>
       </c>
       <c r="L29" t="n">
-        <v>30.2722376590126</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>30.27223765901272</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O29" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>93.99127447431646</v>
@@ -29746,37 +29746,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="C32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="D32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="E32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="F32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="G32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="H32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="I32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>43.49509683159968</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -29785,37 +29785,37 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>106.3364573000708</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>106.3364573000708</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>106.3364573000708</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>86.27291196566775</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="T32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="U32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="V32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="W32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="X32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="Y32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="C34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="D34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="E34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="F34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="G34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="H34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="I34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="J34" t="n">
-        <v>106.3364573000708</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K34" t="n">
-        <v>106.3364573000708</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="M34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="N34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>76.79385455031391</v>
       </c>
       <c r="P34" t="n">
-        <v>18.71446861254424</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="S34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="T34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="U34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="V34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="W34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="X34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="Y34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
     </row>
     <row r="35">
@@ -30165,31 +30165,31 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J37" t="n">
-        <v>30.07448747215907</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
       </c>
       <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>28.0125002648524</v>
+      </c>
+      <c r="R37" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>0</v>
-      </c>
-      <c r="R37" t="n">
-        <v>128.2979821082779</v>
       </c>
       <c r="S37" t="n">
         <v>130.3599693155844</v>
@@ -30411,7 +30411,7 @@
         <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
@@ -30423,10 +30423,10 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>128.2979821082772</v>
+        <v>128.2979821082779</v>
       </c>
       <c r="S40" t="n">
         <v>130.3599693155844</v>
@@ -30481,7 +30481,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>9.379164112033322e-13</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -30639,31 +30639,31 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J43" t="n">
+        <v>30.07448747215907</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="K43" t="n">
-        <v>0</v>
-      </c>
-      <c r="L43" t="n">
-        <v>0</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="n">
-        <v>0</v>
-      </c>
-      <c r="O43" t="n">
-        <v>28.01250026485289</v>
-      </c>
-      <c r="P43" t="n">
-        <v>0</v>
-      </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>5.636002634529005</v>
       </c>
       <c r="R43" t="n">
-        <v>130.3599693155844</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S43" t="n">
         <v>130.3599693155844</v>
@@ -30876,17 +30876,17 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J46" t="n">
-        <v>35.71049010668865</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="L46" t="n">
-        <v>0</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
       <c r="N46" t="n">
         <v>0</v>
       </c>
@@ -30897,7 +30897,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>5.636002634528086</v>
       </c>
       <c r="R46" t="n">
         <v>122.6619794737488</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>444.7798794567307</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M2" t="n">
-        <v>543.6957424344376</v>
+        <v>446.5118655870812</v>
       </c>
       <c r="N2" t="n">
-        <v>533.1427107449111</v>
+        <v>518.7905844542306</v>
       </c>
       <c r="O2" t="n">
         <v>444.4844453457863</v>
@@ -34717,7 +34717,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,25 +34775,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L3" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>543.6957424344376</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>543.6957424344376</v>
+        <v>451.7331554521757</v>
       </c>
       <c r="O3" t="n">
-        <v>340.2409725955612</v>
+        <v>518.7905844542306</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q3" t="n">
         <v>236.7324157120106</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K5" t="n">
-        <v>362.6084404317796</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>498.303324968211</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>543.6957424344376</v>
+        <v>406.3979660376453</v>
       </c>
       <c r="N5" t="n">
-        <v>533.1427107449111</v>
+        <v>518.7905844542306</v>
       </c>
       <c r="O5" t="n">
-        <v>215.0652464135855</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,22 +35012,22 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K6" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L6" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>173.2074096163503</v>
+        <v>451.7331554521757</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>521.7376591828091</v>
+        <v>518.7905844542306</v>
       </c>
       <c r="P6" t="n">
         <v>409.7185542589873</v>
@@ -35249,19 +35249,19 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
-        <v>582.1523102088539</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>591.4121262692951</v>
+        <v>570.8562868639664</v>
       </c>
       <c r="O9" t="n">
         <v>521.7376591828091</v>
@@ -35489,16 +35489,16 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L12" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M12" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>51.00106726098203</v>
+        <v>598.8774259673916</v>
       </c>
       <c r="O12" t="n">
         <v>521.7376591828091</v>
@@ -35507,7 +35507,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q12" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>41.0038249225729</v>
+        <v>41.00382492257294</v>
       </c>
       <c r="K13" t="n">
-        <v>153.7399700815419</v>
+        <v>153.739970081542</v>
       </c>
       <c r="L13" t="n">
         <v>236.863807216752</v>
@@ -35580,13 +35580,13 @@
         <v>256.1183467696908</v>
       </c>
       <c r="O13" t="n">
-        <v>235.4265619318108</v>
+        <v>235.4265619318109</v>
       </c>
       <c r="P13" t="n">
-        <v>192.1653485326901</v>
+        <v>192.1653485326902</v>
       </c>
       <c r="Q13" t="n">
-        <v>74.53507640488445</v>
+        <v>74.53507640488449</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35802,19 +35802,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>41.0038249225729</v>
+        <v>41.00382492257288</v>
       </c>
       <c r="K16" t="n">
         <v>153.7399700815419</v>
       </c>
       <c r="L16" t="n">
-        <v>236.863807216752</v>
+        <v>236.8638072167519</v>
       </c>
       <c r="M16" t="n">
         <v>259.2516238475239</v>
       </c>
       <c r="N16" t="n">
-        <v>256.1183467696908</v>
+        <v>256.1183467696907</v>
       </c>
       <c r="O16" t="n">
         <v>235.4265619318108</v>
@@ -35823,7 +35823,7 @@
         <v>192.1653485326901</v>
       </c>
       <c r="Q16" t="n">
-        <v>74.53507640488445</v>
+        <v>74.53507640488444</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35902,7 +35902,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q17" t="n">
-        <v>186.7126870110593</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35960,10 +35960,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L18" t="n">
         <v>488.450591816478</v>
@@ -35972,16 +35972,16 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N18" t="n">
-        <v>662.4019911217769</v>
+        <v>135.5123342397976</v>
       </c>
       <c r="O18" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>35.05004611020335</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36051,13 +36051,13 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N19" t="n">
-        <v>315.4000036905431</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O19" t="n">
         <v>164.3482495370789</v>
       </c>
       <c r="P19" t="n">
-        <v>121.0870361379582</v>
+        <v>251.4470054535425</v>
       </c>
       <c r="Q19" t="n">
         <v>3.456764010152483</v>
@@ -36200,25 +36200,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>259.444269251904</v>
       </c>
       <c r="L21" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M21" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P21" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q21" t="n">
-        <v>147.0691510340253</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,19 +36276,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K22" t="n">
         <v>82.66165768680997</v>
       </c>
       <c r="L22" t="n">
-        <v>165.78549482202</v>
+        <v>201.4959849287092</v>
       </c>
       <c r="M22" t="n">
-        <v>193.809314087322</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N22" t="n">
-        <v>315.4000036905431</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O22" t="n">
         <v>164.3482495370789</v>
@@ -36434,16 +36434,16 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>322.9688344062893</v>
+        <v>287.7334829729925</v>
       </c>
       <c r="L24" t="n">
         <v>488.4505918164782</v>
       </c>
       <c r="M24" t="n">
-        <v>247.8874524576762</v>
+        <v>634.1127774006882</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -36455,7 +36455,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q24" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,16 +36513,16 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K25" t="n">
-        <v>88.2976603213401</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L25" t="n">
         <v>165.78549482202</v>
       </c>
       <c r="M25" t="n">
-        <v>318.5332807683762</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N25" t="n">
         <v>185.0400343749588</v>
@@ -36531,7 +36531,7 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P25" t="n">
-        <v>121.0870361379582</v>
+        <v>156.7975262446473</v>
       </c>
       <c r="Q25" t="n">
         <v>3.456764010152483</v>
@@ -36595,16 +36595,16 @@
         <v>146.110881726089</v>
       </c>
       <c r="K26" t="n">
-        <v>362.6084404317796</v>
+        <v>456.5997149060961</v>
       </c>
       <c r="L26" t="n">
         <v>592.2945994425274</v>
       </c>
       <c r="M26" t="n">
-        <v>645.507335125408</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N26" t="n">
-        <v>563.4149484039228</v>
+        <v>627.1339852192276</v>
       </c>
       <c r="O26" t="n">
         <v>538.4757198201028</v>
@@ -36613,7 +36613,7 @@
         <v>445.6958119809042</v>
       </c>
       <c r="Q26" t="n">
-        <v>280.7039614853756</v>
+        <v>216.9849246700714</v>
       </c>
       <c r="R26" t="n">
         <v>56.37828989698318</v>
@@ -36674,16 +36674,16 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>259.4442692519037</v>
+        <v>287.7334829729924</v>
       </c>
       <c r="L27" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N27" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>521.7376591828091</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>63.91678700215729</v>
+        <v>63.91678700215738</v>
       </c>
       <c r="K28" t="n">
         <v>176.6529321611264</v>
@@ -36835,16 +36835,16 @@
         <v>456.5997149060961</v>
       </c>
       <c r="L29" t="n">
-        <v>528.5755626272236</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M29" t="n">
-        <v>551.5160606510915</v>
+        <v>581.7882983101042</v>
       </c>
       <c r="N29" t="n">
-        <v>533.1427107449111</v>
+        <v>627.1339852192276</v>
       </c>
       <c r="O29" t="n">
-        <v>538.4757198201028</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P29" t="n">
         <v>445.6958119809042</v>
@@ -36908,16 +36908,16 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>322.9688344062893</v>
+        <v>287.7334829729924</v>
       </c>
       <c r="L30" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
-        <v>247.8874524576761</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -36929,7 +36929,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q30" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37066,13 +37066,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>146.110881726089</v>
+        <v>189.6059785576887</v>
       </c>
       <c r="K32" t="n">
-        <v>362.6084404317796</v>
+        <v>475.3883602044896</v>
       </c>
       <c r="L32" t="n">
-        <v>498.303324968211</v>
+        <v>611.0832447409209</v>
       </c>
       <c r="M32" t="n">
         <v>551.5160606510915</v>
@@ -37081,16 +37081,16 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O32" t="n">
-        <v>550.8209026458571</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P32" t="n">
-        <v>458.0409948066585</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q32" t="n">
-        <v>293.0491443111299</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R32" t="n">
-        <v>48.65992738833447</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,25 +37148,25 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>322.9688344062893</v>
+        <v>35.05004611020397</v>
       </c>
       <c r="L33" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N33" t="n">
-        <v>362.1450102553808</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O33" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P33" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,25 +37224,25 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>76.26196982791171</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>188.9981149868808</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L34" t="n">
-        <v>272.1219521220908</v>
+        <v>278.5654145947299</v>
       </c>
       <c r="M34" t="n">
-        <v>294.5097687528627</v>
+        <v>300.9532312255019</v>
       </c>
       <c r="N34" t="n">
-        <v>291.3764916750296</v>
+        <v>297.8199541476687</v>
       </c>
       <c r="O34" t="n">
-        <v>164.3482495370789</v>
+        <v>241.1421040873928</v>
       </c>
       <c r="P34" t="n">
-        <v>139.8015047505024</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q34" t="n">
         <v>3.456764010152483</v>
@@ -37385,16 +37385,16 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>488.450591816478</v>
+        <v>113.782083667694</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N36" t="n">
-        <v>362.1450102553808</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O36" t="n">
         <v>521.7376591828091</v>
@@ -37403,7 +37403,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q36" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,13 +37461,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K37" t="n">
         <v>82.66165768680997</v>
       </c>
       <c r="L37" t="n">
-        <v>296.1454641376043</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M37" t="n">
         <v>188.1733114527919</v>
@@ -37482,10 +37482,10 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q37" t="n">
-        <v>3.456764010152483</v>
+        <v>31.46926427500488</v>
       </c>
       <c r="R37" t="n">
-        <v>5.636002634529095</v>
+        <v>7.697989841835579</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>322.9688344062893</v>
@@ -37628,19 +37628,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M39" t="n">
-        <v>247.8874524576764</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>374.483202825691</v>
       </c>
       <c r="O39" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P39" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37707,7 +37707,7 @@
         <v>165.78549482202</v>
       </c>
       <c r="M40" t="n">
-        <v>188.1733114527919</v>
+        <v>318.5332807683764</v>
       </c>
       <c r="N40" t="n">
         <v>185.0400343749588</v>
@@ -37719,10 +37719,10 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q40" t="n">
-        <v>133.8167333257369</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R40" t="n">
-        <v>5.636002634528405</v>
+        <v>5.636002634529095</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37777,7 +37777,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>146.110881726089</v>
+        <v>146.1108817260899</v>
       </c>
       <c r="K41" t="n">
         <v>362.6084404317796</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>322.9688344062893</v>
+        <v>35.0500461102036</v>
       </c>
       <c r="L42" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M42" t="n">
-        <v>247.8874524576764</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O42" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P42" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>100.2854818434253</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>82.66165768680997</v>
@@ -37950,16 +37950,16 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O43" t="n">
-        <v>192.3607498019317</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P43" t="n">
-        <v>121.0870361379582</v>
+        <v>251.4470054535425</v>
       </c>
       <c r="Q43" t="n">
-        <v>3.456764010152483</v>
+        <v>9.092766644681488</v>
       </c>
       <c r="R43" t="n">
-        <v>7.69798984183555</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38102,19 +38102,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N45" t="n">
-        <v>247.8874524576764</v>
+        <v>260.2256450279866</v>
       </c>
       <c r="O45" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P45" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,16 +38172,16 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>5.636002634529582</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>213.0216270023943</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L46" t="n">
         <v>165.78549482202</v>
       </c>
       <c r="M46" t="n">
-        <v>188.1733114527919</v>
+        <v>318.5332807683764</v>
       </c>
       <c r="N46" t="n">
         <v>185.0400343749588</v>
@@ -38193,7 +38193,7 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q46" t="n">
-        <v>3.456764010152483</v>
+        <v>9.092766644680569</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
